--- a/data/arriendos_puerto_montt.xlsx
+++ b/data/arriendos_puerto_montt.xlsx
@@ -517,54 +517,54 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2 Dormitorios, 1 Bano. 1 Estacionamiento. Buen Estado!</t>
+          <t>3d/2b/3e Amplia Casa En Valle Volcanes, Puerto Montt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Impecable Estado / Sargento Silva, Puerto Montt</t>
+          <t>Laguna Del Laja 4904, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 50 m2 utiles</t>
+          <t>3 dormitorios 2 banos 100 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Casa En Parcela Esquina A Orilla De Carretera - Chamiza</t>
+          <t>2 Dormitorios, 1 Bano. 1 Estacionamiento. Buen Estado!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Casa En Parcela Esquina A Orilla De Carretera - Las Vegas De Chamiza, Puerto Montt</t>
+          <t>Impecable Estado / Sargento Silva, Puerto Montt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 196 m2 utiles</t>
+          <t>2 dormitorios 1 bano 50 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 3 Dorm. En Bosquemar Puerto Montt</t>
+          <t>Casa En Parcela Esquina A Orilla De Carretera - Chamiza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bosque Mar, Puerto Montt</t>
+          <t>Casa En Parcela Esquina A Orilla De Carretera - Las Vegas De Chamiza, Puerto Montt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 68 m2 utiles</t>
+          <t>3 dormitorios 2 banos 196 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -603,49 +603,49 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 3 Dorm. En Costa Chinquio Puerto Montt</t>
+          <t>Casa En Arriendo De 3 Dorm. En Bosquemar Puerto Montt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$ 470.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Costa Chinquio, Puerto Montt</t>
+          <t>Bosque Mar, Puerto Montt</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 58 m2 utiles</t>
+          <t>3 dormitorios 1 bano 68 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo En Puerto Montt</t>
+          <t>Casa En Arriendo De 3 Dorm. En Costa Chinquio Puerto Montt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 470.000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 85, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Costa Chinquio, Puerto Montt</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 36 m2 utiles</t>
+          <t>3 dormitorios 1 bano 58 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo De 3 Dorm. En Puerto Montt</t>
+          <t>Departamento En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UF 18 , 52</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Calle Puerto Montt 1641, Puerto Montt</t>
+          <t>Francisco Bilbao 85, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 75 m2 utiles</t>
+          <t>2 dormitorios 1 bano 36 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -684,211 +684,211 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo De 2 Dorm. En Puerto Montt</t>
+          <t>Departamento En Arriendo De 3 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>UF 18 , 52</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Alta Vista III, Puerto Montt</t>
+          <t>Calle Puerto Montt 1641, Puerto Montt</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 54 m2 utiles</t>
+          <t>3 dormitorios 2 banos 75 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 3 Dorm. En Puerto Montt</t>
+          <t>Departamento En Arriendo De 2 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$ 350.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CHAMIZA, RIO MAR, Angelmo, Puerto Montt</t>
+          <t>Alta Vista III, Puerto Montt</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 97 m2 utiles</t>
+          <t>2 dormitorios 1 bano 54 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Se Arrienda Casa En Valle Volcanes Puerto Montt</t>
+          <t>Casa En Arriendo De 3 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 350.000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Valle Volcanes, Puerto Montt, La Paloma, Puerto Montt</t>
+          <t>CHAMIZA, RIO MAR, Angelmo, Puerto Montt</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 92 m2 utiles</t>
+          <t>3 dormitorios 1 bano 97 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 3d1b. En Bosquemar, Puerto Montt</t>
+          <t>Se Arrienda Casa En Valle Volcanes Puerto Montt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UF 12 , 77</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BOSQUEMAR, Puerto Montt</t>
+          <t>Valle Volcanes, Puerto Montt, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 41 m2 utiles</t>
+          <t>3 dormitorios 2 banos 92 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Centro De Bodegaje Ubicacion Estrategica - Puerto Montt</t>
+          <t>Casa En Arriendo De 3d1b. En Bosquemar, Puerto Montt</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UF 0 , 17</t>
+          <t>UF 12 , 77</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C. De Servicio 1 - 300, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>BOSQUEMAR, Puerto Montt</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2 privados 4 banos 1.044 m2 utiles</t>
+          <t>3 dormitorios 1 bano 41 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Departamento Avant Garde - Puerto Montt</t>
+          <t>Centro De Bodegaje Ubicacion Estrategica - Puerto Montt</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UF 12</t>
+          <t>UF 0 , 17</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ejercito 381, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>C. De Servicio 1 - 300, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 34 m2 utiles</t>
+          <t>2 privados 4 banos 1.044 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Casa Pje. Maule, Valle Volcanes - Puerto Montt</t>
+          <t>Departamento Avant Garde - Puerto Montt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>UF 12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pje. Maule, Puerto Montt, La Paloma, Puerto Montt</t>
+          <t>Ejercito 381, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3 dormitorios 3 banos 165 m2 utiles</t>
+          <t>1 dormitorio 1 bano 34 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Departamento Arriendo Condominio Alta Vista Iii Puerto Montt</t>
+          <t>Casa Pje. Maule, Valle Volcanes - Puerto Montt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$ 530.000</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Marta Colvin 1800, Puerto Montt, Puerto Montt</t>
+          <t>Pje. Maule, Puerto Montt, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 56 m2 utiles</t>
+          <t>3 dormitorios 3 banos 165 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -900,22 +900,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Arriendo Depto Nuevo 2 Dorm &amp;#43;1 Bano. Puerto Montt</t>
+          <t>Departamento Arriendo Condominio Alta Vista Iii Puerto Montt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>UF 12</t>
+          <t>$ 530.000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Avenida Sargento Silva, Puerto Montt</t>
+          <t>Marta Colvin 1800, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 47 m2 utiles</t>
+          <t>2 dormitorios 1 bano 56 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -927,22 +927,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo De 3 Dorm. En Puerto Montt</t>
+          <t>Arriendo Depto Nuevo 2 Dorm &amp;#43;1 Bano. Puerto Montt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$ 400.000</t>
+          <t>UF 12</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Condominio Alto La Paloma, La Paloma, Puerto Montt</t>
+          <t>Avenida Sargento Silva, Puerto Montt</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 46 m2 utiles</t>
+          <t>2 dormitorios 1 bano 47 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -959,152 +959,152 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 400.000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Condominio Alto La Paloma III, La Paloma, Puerto Montt</t>
+          <t>Condominio Alto La Paloma, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 48 m2 utiles</t>
+          <t>3 dormitorios 1 bano 46 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Casa Semi Nueva Sector Costa Chinquio (18436)</t>
+          <t>Departamento En Arriendo De 3 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$ 470.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Calle Chinquihue 1 - 300, Puerto Montt, Chile, Puerto Montt</t>
+          <t>Condominio Alto La Paloma III, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 85 m2 utiles</t>
+          <t>3 dormitorios 1 bano 48 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo De 3 Dorm. En Puerto Montt</t>
+          <t>Casa Semi Nueva Sector Costa Chinquio (18436)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$ 615.000</t>
+          <t>$ 470.000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AltaVista, Puerto Montt</t>
+          <t>Calle Chinquihue 1 - 300, Puerto Montt, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 65 m2 utiles</t>
+          <t>3 dormitorios 2 banos 85 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Excelente Ubicacion, Arriendo En Sector Seminario,...</t>
+          <t>Departamento En Arriendo De 3 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UF 35</t>
+          <t>$ 615.000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Puerto Montt, Centro De Puerto Montt</t>
+          <t>AltaVista, Puerto Montt</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5 dormitorios 3 banos 136 m2 utiles</t>
+          <t>3 dormitorios 2 banos 65 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Excelente Departamento Amoblado En Arriendo. Edifi...</t>
+          <t>Excelente Ubicacion, Arriendo En Sector Seminario,...</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$ 780.000</t>
+          <t>UF 35</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Puerto Montt, Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 77 m2 utiles</t>
+          <t>5 dormitorios 3 banos 136 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>En Arriendo Las Vegas De Chamiza</t>
+          <t>Excelente Departamento Amoblado En Arriendo. Edifi...</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>$ 780.000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Chamiza, Puerto Montt</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 196 m2 utiles</t>
+          <t>3 dormitorios 2 banos 77 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hermosa Y Amplia Casa En Sector Lomas Del Reloncav...</t>
+          <t>En Arriendo Las Vegas De Chamiza</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>UF 63 , 80</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Chamiza, Puerto Montt</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6 dormitorios 4 banos 545 m2 utiles</t>
+          <t>3 dormitorios 2 banos 196 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3 Dormitorios En Condominio Terramar</t>
+          <t>Hermosa Y Amplia Casa En Sector Lomas Del Reloncav...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>UF 63 , 80</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 80 m2 utiles</t>
+          <t>6 dormitorios 4 banos 545 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -1170,22 +1170,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Edificio Imagina A Pasos Del Centro De Puerto Mont...</t>
+          <t>3 Dormitorios En Condominio Terramar</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Puerto Montt, Centro De Puerto Montt</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 70 m2 utiles</t>
+          <t>3 dormitorios 2 banos 80 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Departamento &lt;&lt;altos De Pelluco&gt;&gt;, Con Vista Al Mar ...</t>
+          <t>Edificio Imagina A Pasos Del Centro De Puerto Mont...</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1207,93 +1207,93 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Puerto Montt, Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 50 m2 utiles</t>
+          <t>2 dormitorios 2 banos 70 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Casa En Arriendo, Sector Colonia Tres Puentes, Pue...</t>
+          <t>Departamento &lt;&lt;altos De Pelluco&gt;&gt;, Con Vista Al Mar ...</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>UF 16</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Puerto Varas, Puerto Montt</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 72 m2 utiles</t>
+          <t>2 dormitorios 2 banos 50 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Depto En Arriendo De 3 Dorm. En Cercano Centro Puerto Montt</t>
+          <t>Casa En Arriendo, Sector Colonia Tres Puentes, Pue...</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>UF 16</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Edificio Vista Reloncavi, Lintz, Puerto Montt</t>
+          <t>Puerto Varas, Puerto Montt</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 46 m2 utiles</t>
+          <t>2 dormitorios 2 banos 72 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 5 Dorm. En Puerto Montt</t>
+          <t>Depto En Arriendo De 3 Dorm. En Cercano Centro Puerto Montt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$ 950.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Los Canelos, Avellanos De Trapen, Puerto Montt</t>
+          <t>Edificio Vista Reloncavi, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5 dormitorios 4 banos 200 m2 utiles</t>
+          <t>3 dormitorios 1 bano 46 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -1305,88 +1305,88 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1543 - Vicuna Mackenna Ndeg2099, Alto Mirasol</t>
+          <t>Casa En Arriendo De 5 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$ 400.000</t>
+          <t>$ 950.000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Vicuna Mackenna, Puerto Montt, Puerto Montt</t>
+          <t>Los Canelos, Avellanos De Trapen, Puerto Montt</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 50 m2 utiles</t>
+          <t>5 dormitorios 4 banos 200 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Arriendo Oficina 130 Mt2 Centro Puerto Montt</t>
+          <t>1543 - Vicuna Mackenna Ndeg2099, Alto Mirasol</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>UF 38</t>
+          <t>$ 400.000</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PEDRO MONTT ESQUINA URMENETA 160, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Vicuna Mackenna, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3 banos 130 m2 utiles</t>
+          <t>2 dormitorios 1 bano 50 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cercano Al Hospital Puerto Montt Y Vista Al Mar Despejada</t>
+          <t>Arriendo Oficina 130 Mt2 Centro Puerto Montt</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>UF 38</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>PEDRO MONTT ESQUINA URMENETA 160, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 50 m2 utiles</t>
+          <t>3 banos 130 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1544 - Bosque Nuevo Ndeg1688, Bosquemar</t>
+          <t>Cercano Al Hospital Puerto Montt Y Vista Al Mar Despejada</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1396,24 +1396,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Calle Bosque Nuevo 1688, Puerto Montt, Puerto Montt</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 54 m2 utiles</t>
+          <t>2 dormitorios 1 bano 50 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A Estrenar Luminoso Departamento En Condominio</t>
+          <t>1544 - Bosque Nuevo Ndeg1688, Bosquemar</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1423,12 +1423,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pto Darwin 2207, Puerto Montt, Mirasol De Puerto Montt, Puerto Montt</t>
+          <t>Calle Bosque Nuevo 1688, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 50 m2 utiles</t>
+          <t>3 dormitorios 1 bano 54 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -1440,157 +1440,157 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Arriendo Departamento 2d/2b Ed. Terramar, Puerto Montt</t>
+          <t>A Estrenar Luminoso Departamento En Condominio</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Av. Puerto Montt 1650, Puerto Montt, Puerto Montt</t>
+          <t>Pto Darwin 2207, Puerto Montt, Mirasol De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 65 m2 utiles</t>
+          <t>3 dormitorios 2 banos 50 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Arriendo Amplia Casa Para Oficinas Centro Puerto Montt</t>
+          <t>Arriendo Departamento 2d/2b Ed. Terramar, Puerto Montt</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>UF 65</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Guillermo Gallardo 500, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Av. Puerto Montt 1650, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8 privados 4 banos 240 m2 utiles</t>
+          <t>2 dormitorios 2 banos 65 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Arriendo Acogedora Casa En Barrio Resindecial Puerto Montt.</t>
+          <t>Arriendo Amplia Casa Para Oficinas Centro Puerto Montt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$ 595.000</t>
+          <t>UF 65</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pje. Alejandro Flores Pinaud 1756, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Guillermo Gallardo 500, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 75 m2 utiles</t>
+          <t>8 privados 4 banos 240 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Arriendo Bodega Con Oficinas Parque Industrial Puerto Montt</t>
+          <t>Arriendo Acogedora Casa En Barrio Resindecial Puerto Montt.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>UF 50</t>
+          <t>$ 595.000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Genesis, Puerto Montt, Techo Para Todos, Puerto Montt</t>
+          <t>Pje. Alejandro Flores Pinaud 1756, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3 privados 2 banos 250 m2 utiles</t>
+          <t>3 dormitorios 1 bano 75 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Casa En Arriendo En Puerto Montt</t>
+          <t>Arriendo Bodega Con Oficinas Parque Industrial Puerto Montt</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>UF 50</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Granitica, Villa Melihuen, Puerto Montt</t>
+          <t>Genesis, Puerto Montt, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 94 m2 utiles</t>
+          <t>3 privados 2 banos 250 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo De 1 Dorm. En Puerto Montt</t>
+          <t>Casa En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$ 360.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Calle San Javier 2012, Condominio Alto Pelluco, Puerto Montt</t>
+          <t>Granitica, Villa Melihuen, Puerto Montt</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 34 m2 utiles</t>
+          <t>3 dormitorios 1 bano 94 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -1602,130 +1602,130 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Departamento Nuevo En Arriendo De 2 Dorm. En Puerto Montt</t>
+          <t>Departamento En Arriendo De 1 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$ 390.000</t>
+          <t>$ 360.000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Condominio Vista Reloncavi, Lintz, Puerto Montt</t>
+          <t>Calle San Javier 2012, Condominio Alto Pelluco, Puerto Montt</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 40 m2 utiles</t>
+          <t>1 dormitorio 1 bano 34 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Arriendo Casa Amoblada Para Empresa En Condominio Privado</t>
+          <t>Departamento Nuevo En Arriendo De 2 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$ 1.600.000</t>
+          <t>$ 390.000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Villa Yolanda, Puerto Montt</t>
+          <t>Condominio Vista Reloncavi, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>9 dormitorios 3 banos 120 m2 utiles</t>
+          <t>2 dormitorios 1 bano 40 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo De 2 Dorm. En Puerto Montt</t>
+          <t>Arriendo Casa Amoblada Para Empresa En Condominio Privado</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 1.600.000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Av Austral, La Paloma, Puerto Montt</t>
+          <t>Villa Yolanda, Puerto Montt</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 64 m2 utiles</t>
+          <t>9 dormitorios 3 banos 120 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Arrienda Casa En Condominio En Valle Volcanes Puerto Montt</t>
+          <t>Departamento En Arriendo De 2 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$ 900.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Valle Volcanes, Puerto Montt, La Paloma, Puerto Montt</t>
+          <t>Av Austral, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 112 m2 utiles</t>
+          <t>2 dormitorios 2 banos 64 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo Un Dormitorio Nuevo Alto Reloncavi</t>
+          <t>Arrienda Casa En Condominio En Valle Volcanes Puerto Montt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$ 420.000</t>
+          <t>$ 900.000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Antares 861, Puerto Montt, Puerto Montt</t>
+          <t>Valle Volcanes, Puerto Montt, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 49 m2 utiles</t>
+          <t>3 dormitorios 2 banos 112 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1737,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Depto Cerca Universidad San Sebastian A Pasos Del Centro</t>
+          <t>Departamento En Arriendo Un Dormitorio Nuevo Alto Reloncavi</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$ 360.000</t>
+          <t>$ 420.000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Helmut Stange W 1064, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Antares 861, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 36 m2 utiles</t>
+          <t>1 dormitorio 1 bano 49 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -5355,22 +5355,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Puerto Montt Arriendo Local 28 M2 Costanera Centro</t>
+          <t>Puerto Montt Local 75 M2 Presidente Ibanez</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>UF 23</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Diego Portales, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Avenida Presidente Ibanez, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>1 bano 28 m2 utiles</t>
+          <t>3 banos 75 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -5382,22 +5382,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Puerto Montt Local 500 M2 Central</t>
+          <t>Puerto Montt Arriendo Local 28 M2 Costanera Centro</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>$ 2.500.000</t>
+          <t>UF 23</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Guillermo Gallardo, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Diego Portales, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>2 banos 500 m2 utiles</t>
+          <t>1 bano 28 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -5409,22 +5409,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Puerto Montt Local 75 M2 Presidente Ibanez</t>
+          <t>Puerto Montt Local 500 M2 Central</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 2.500.000</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Avenida Presidente Ibanez, Techo Para Todos, Puerto Montt</t>
+          <t>Guillermo Gallardo, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>3 banos 75 m2 utiles</t>
+          <t>2 banos 500 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -6565,27 +6565,27 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Casa En Parcelacion En Puerto Montt (118166)</t>
+          <t>Arriendo Oficina Grande Puerto Montt (71558)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>UF 210</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Avenida Los Colonos 1 - 300, Alerces, Puerto Montt</t>
+          <t>Antonio Varas 1 - 300, Puerto Montt, Chile, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 80 m2 utiles</t>
+          <t>8 banos 580 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Antonio Varas 1 - 300, Puerto Montt, Chile, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Arriendo Of Piso 12 Y 1 - 300 Torre Del Puerto, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6619,81 +6619,81 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Arriendo Oficina Grande Puerto Montt (71558)</t>
+          <t>Condominio Jardines De Padre Harter (110176)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>UF 210</t>
+          <t>$ 630.000</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Arriendo Of Piso 12 Y 1 - 300 Torre Del Puerto, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Padre Harter 303, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>8 banos 580 m2 utiles</t>
+          <t>3 dormitorios 2 banos 90 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Condominio Jardines De Padre Harter (110176)</t>
+          <t>Arriendo En Pleno Centro Puerto Montt (108437)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>$ 630.000</t>
+          <t>UF 28</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Padre Harter 303, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Calle O"higgins 600 - 900, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 90 m2 utiles</t>
+          <t>3 privados 3 banos 85 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Arriendo En Pleno Centro Puerto Montt (108437)</t>
+          <t>Casa En Parcelacion En Puerto Montt (118166)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>UF 28</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Calle O"higgins 600 - 900, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Avenida Los Colonos 1 - 300, Alerces, Puerto Montt</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>3 privados 3 banos 85 m2 utiles</t>
+          <t>2 dormitorios 1 bano 80 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -6975,22 +6975,22 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Casa Arriendo Prox. Lider Express Pto Montt (118169)</t>
+          <t>Amplia Casa En Arriendo (114122)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Monsenor Ramon Munita 1 - 300, Puerto Montt</t>
+          <t>Pasaje Del Mar Sur 1200 - 1500, Puerto Montt</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 70 m2 utiles</t>
+          <t>5 dormitorios 2 banos 130 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -7002,22 +7002,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Amplia Casa En Arriendo (114122)</t>
+          <t>Casa Nueva En Brisas De Chinquihue (111215)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Pasaje Del Mar Sur 1200 - 1500, Puerto Montt</t>
+          <t>Chinquihue 2 1 - 300, Puerto Montt</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>5 dormitorios 2 banos 130 m2 utiles</t>
+          <t>3 dormitorios 1 bano 50 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -7029,22 +7029,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Casa Nueva En Brisas De Chinquihue (111215)</t>
+          <t>Casa Arriendo Prox. Lider Express Pto Montt (118169)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Chinquihue 2 1 - 300, Puerto Montt</t>
+          <t>Monsenor Ramon Munita 1 - 300, Puerto Montt</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 50 m2 utiles</t>
+          <t>3 dormitorios 2 banos 70 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -8946,22 +8946,22 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Espectacular Casa En Arriendo A Metros De Playa Pelluco</t>
+          <t>Arrienda Propiedad En Inigualable Sector</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>$ 2.500.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Santiago, 2129, Puerto Montt</t>
+          <t>Llanten, 2106, Puerto Montt</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>6 dormitorios 5 banos 280 m2 utiles</t>
+          <t>3 dormitorios 1 bano 57 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -8973,76 +8973,76 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Arriendo Casa 3hab 2ba Puerto Montt</t>
+          <t>Espectacular Casa En Arriendo A Metros De Playa Pelluco</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 2.500.000</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Avenida Transversal 5, 1000, Puerto Montt</t>
+          <t>Santiago, 2129, Puerto Montt</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 100 m2 utiles</t>
+          <t>6 dormitorios 5 banos 280 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Se Arrienda A Bodega En Sector Centro De Puerto Montt</t>
+          <t>Arriendo Casa 3hab 2ba Puerto Montt</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>$ 1.500.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Malaquias Concha, 422, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Avenida Transversal 5, 1000, Puerto Montt</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>350 m2 utiles</t>
+          <t>3 dormitorios 2 banos 100 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Arriendo Gastos Comunes Inlcuidos</t>
+          <t>Se Arrienda A Bodega En Sector Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>$ 400.000</t>
+          <t>$ 1.500.000</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Volcan Corcovado, 5600, La Paloma, Puerto Montt</t>
+          <t>Malaquias Concha, 422, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 54 m2 utiles</t>
+          <t>350 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -9054,22 +9054,22 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Arriendo Departamento 1hab 1ba Puerto Montt</t>
+          <t>Arriendo Gastos Comunes Inlcuidos</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>$ 290.000</t>
+          <t>$ 400.000</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Valle El Cardonal, 1000, Puerto Montt</t>
+          <t>Volcan Corcovado, 5600, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 40 m2 utiles</t>
+          <t>2 dormitorios 1 bano 54 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -9081,76 +9081,76 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Arriendo Departamento 3hab 2ba Puerto Montt</t>
+          <t>Arriendo Departamento 1hab 1ba Puerto Montt</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>$ 620.000</t>
+          <t>$ 290.000</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Marta Colvin, 1000, Puerto Montt</t>
+          <t>Valle El Cardonal, 1000, Puerto Montt</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 60 m2 utiles</t>
+          <t>1 dormitorio 1 bano 40 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Arriendo Bodega Puerto Montt</t>
+          <t>Arriendo Departamento 3hab 2ba Puerto Montt</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>$ 5.000.000</t>
+          <t>$ 620.000</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>PUERTA SUR, SN, Puerto Montt</t>
+          <t>Marta Colvin, 1000, Puerto Montt</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>5.000 m2 utiles</t>
+          <t>3 dormitorios 2 banos 60 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Arriendo Departamento Puerta Sur</t>
+          <t>Arriendo Bodega Puerto Montt</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>$ 340.000</t>
+          <t>$ 5.000.000</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>ARRIENDO DEPARTAMENTO PUERTA SUR, Puerto Montt</t>
+          <t>PUERTA SUR, SN, Puerto Montt</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 34 m2 utiles</t>
+          <t>5.000 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -9162,49 +9162,49 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Arriendo Dpto. Amoblado Cond.vista Cordillera Valle Volcanes</t>
+          <t>Arriendo Departamento Puerta Sur</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>$ 580.000</t>
+          <t>$ 340.000</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>ARRIENDO DEPARTAMENTO AMOBLADO VALLE VOLCANES, Puerto Montt</t>
+          <t>ARRIENDO DEPARTAMENTO PUERTA SUR, Puerto Montt</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 67 m2 utiles</t>
+          <t>1 dormitorio 1 bano 34 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Arriendo Amplia Casa Amoblada Camino San Antonio Aeropuerto</t>
+          <t>Arriendo Dpto. Amoblado Cond.vista Cordillera Valle Volcanes</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>$ 680.000</t>
+          <t>$ 580.000</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>ARRIENDO AMPLIA CASA AMOBLADA CAMINO SAN ANTONIO AEROPUERTO, Puerto Montt</t>
+          <t>ARRIENDO DEPARTAMENTO AMOBLADO VALLE VOLCANES, Puerto Montt</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 113 m2 utiles</t>
+          <t>2 dormitorios 2 banos 67 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -9216,277 +9216,277 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Arriendo Cabana Amoblada Nueva Panitao Bajo</t>
+          <t>Arriendo Amplia Casa Amoblada Camino San Antonio Aeropuerto</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 680.000</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>ARRIENDO CABANA AMOBLADA NUEVA PANITAO BAJO, Puerto Montt</t>
+          <t>ARRIENDO AMPLIA CASA AMOBLADA CAMINO SAN ANTONIO AEROPUERTO, Puerto Montt</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 42 m2 utiles</t>
+          <t>3 dormitorios 2 banos 113 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Oficina En Arriendo Con Vista Al Mar En Puerto Montt</t>
+          <t>Arriendo Cabana Amoblada Nueva Panitao Bajo</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>UF 95</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Freire Con Urmeneta, Centro De Puerto Montt, Puerto Montt</t>
+          <t>ARRIENDO CABANA AMOBLADA NUEVA PANITAO BAJO, Puerto Montt</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>5 privados 4 banos 186 m2 utiles</t>
+          <t>2 dormitorios 1 bano 42 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Excelente Oportunidad De Arriendo 3d2b Condominio Terramar</t>
+          <t>Oficina En Arriendo Con Vista Al Mar En Puerto Montt</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>UF 17 , 70</t>
+          <t>UF 95</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Condominio Terramar, Puerto Montt</t>
+          <t>Freire Con Urmeneta, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 77 m2 utiles</t>
+          <t>5 privados 4 banos 186 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 3d2b En Valle Volcanes Puerto Montt</t>
+          <t>Excelente Oportunidad De Arriendo 3d2b Condominio Terramar</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>UF 24 , 14</t>
+          <t>UF 17 , 70</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Valle Volcanes, La Paloma, Puerto Montt</t>
+          <t>Condominio Terramar, Puerto Montt</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 130 m2 utiles</t>
+          <t>3 dormitorios 2 banos 77 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Local Comercial En Arriendo En Puerto Montt</t>
+          <t>Casa En Arriendo De 3d2b En Valle Volcanes Puerto Montt</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>UF 155</t>
+          <t>UF 24 , 14</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>A Pasos De La Clinica Los Andes, Puerto Montt</t>
+          <t>Valle Volcanes, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>8 banos 820 m2 utiles</t>
+          <t>3 dormitorios 2 banos 130 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo Amoblado De 2 Dorm. En Puerto Montt</t>
+          <t>Local Comercial En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>UF 19 , 35</t>
+          <t>UF 155</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Valle Volcanes, La Paloma, Puerto Montt</t>
+          <t>A Pasos De La Clinica Los Andes, Puerto Montt</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 53 m2 utiles</t>
+          <t>8 banos 820 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Oficina En Arriendo Planta Abierta En Puerto Montt</t>
+          <t>Departamento En Arriendo Amoblado De 2 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>UF 155</t>
+          <t>UF 19 , 35</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>A Pasos De La Clinica Los Andes, Puerto Montt</t>
+          <t>Valle Volcanes, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>2 privados 8 banos 820 m2 utiles</t>
+          <t>2 dormitorios 2 banos 53 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo De 2 Dorm.2banos En Puerto Montt</t>
+          <t>Oficina En Arriendo Planta Abierta En Puerto Montt</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>$ 580.000</t>
+          <t>UF 155</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Pelluco, Puerto Montt</t>
+          <t>A Pasos De La Clinica Los Andes, Puerto Montt</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 54 m2 utiles</t>
+          <t>2 privados 8 banos 820 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Arriendo Comercial Con Excelente Ubicacion En Puerto Montt</t>
+          <t>Departamento En Arriendo De 2 Dorm.2banos En Puerto Montt</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>UF 40</t>
+          <t>$ 580.000</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Seminario, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Pelluco, Puerto Montt</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>5 dormitorios 3 banos 136 m2 utiles</t>
+          <t>2 dormitorios 2 banos 54 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Sitio en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Sitio En Arriendo En Puerto Montt, Conversable</t>
+          <t>Arriendo Comercial Con Excelente Ubicacion En Puerto Montt</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>UF 152</t>
+          <t>UF 40</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Barrio Industrial, Puerto Montt, Puerto Montt</t>
+          <t>Seminario, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>3.757 m2 totales</t>
+          <t>5 dormitorios 3 banos 136 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Sitio en arriendo</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sitio Industrial En Arriendo En Puerto Montt, Conversable</t>
+          <t>Sitio En Arriendo En Puerto Montt, Conversable</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9501,34 +9501,34 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>2 privados 2 banos 160 m2 utiles</t>
+          <t>3.757 m2 totales</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Departamento Amoblado En Arriendo De 2d 2 B Bosque Pucalan</t>
+          <t>Sitio Industrial En Arriendo En Puerto Montt, Conversable</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>UF 14 , 31</t>
+          <t>UF 152</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>PARQUE PUCALAN, La Paloma, Puerto Montt</t>
+          <t>Barrio Industrial, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 54 m2 utiles</t>
+          <t>2 privados 2 banos 160 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -9540,130 +9540,130 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Espacio Para Ti! Arrendamos Departamento 2d2b Terramar</t>
+          <t>Departamento Amoblado En Arriendo De 2d 2 B Bosque Pucalan</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>$ 730.000</t>
+          <t>UF 14 , 31</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Condominio Terramar, Puerto Montt</t>
+          <t>PARQUE PUCALAN, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 77 m2 utiles</t>
+          <t>2 dormitorios 2 banos 54 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 4d2b. En Valle Volcanes Puerto Montt</t>
+          <t>Espacio Para Ti! Arrendamos Departamento 2d2b Terramar</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>UF 28 , 79</t>
+          <t>$ 730.000</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Valle Volcanes, La Paloma, Puerto Montt</t>
+          <t>Condominio Terramar, Puerto Montt</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>4 dormitorios 2 banos 182 m2 utiles</t>
+          <t>2 dormitorios 2 banos 77 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo De 2d2b En Parque Pucalan</t>
+          <t>Casa En Arriendo De 4d2b. En Valle Volcanes Puerto Montt</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>UF 11 , 80</t>
+          <t>UF 28 , 79</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Parque Pucalan, La Paloma, Puerto Montt</t>
+          <t>Valle Volcanes, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 50 m2 utiles</t>
+          <t>4 dormitorios 2 banos 182 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 3d 3b En Altos De Mackenna Puerto Montt</t>
+          <t>Departamento En Arriendo De 2d2b En Parque Pucalan</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>UF 14 , 23</t>
+          <t>UF 11 , 80</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Alto Mackenna, Mirasol De Puerto Montt, Puerto Montt</t>
+          <t>Parque Pucalan, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 93 m2 utiles</t>
+          <t>2 dormitorios 2 banos 50 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Departamento Semiamoblado En Arriendo De 2d1b Puerto Montt</t>
+          <t>Casa En Arriendo De 3d 3b En Altos De Mackenna Puerto Montt</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>UF 12 , 26</t>
+          <t>UF 14 , 23</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>La Paloma II, La Paloma, Puerto Montt</t>
+          <t>Alto Mackenna, Mirasol De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 43 m2 utiles</t>
+          <t>3 dormitorios 2 banos 93 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -9675,49 +9675,49 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Arrendamos Departamento Gastos Comunes Incluidos En Pelluco</t>
+          <t>Departamento Semiamoblado En Arriendo De 2d1b Puerto Montt</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>UF 16 , 13</t>
+          <t>UF 12 , 26</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Edificio Alto Pelluco II, Puerto Montt</t>
+          <t>La Paloma II, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 64 m2 utiles</t>
+          <t>2 dormitorios 1 bano 43 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 3d3b En Puerto Montt</t>
+          <t>Arrendamos Departamento Gastos Comunes Incluidos En Pelluco</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>UF 16 , 13</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>JARDINES DEL MIRADOR, Mirasol De Puerto Montt, Puerto Montt</t>
+          <t>Edificio Alto Pelluco II, Puerto Montt</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>3 dormitorios 3 banos 115 m2 utiles</t>
+          <t>2 dormitorios 2 banos 64 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -9729,76 +9729,76 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 8 Dorm. En Puerto Montt</t>
+          <t>Casa En Arriendo De 3d3b En Puerto Montt</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>UF 47 , 44</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Costado Mall Costanera, Centro De Puerto Montt, Puerto Montt</t>
+          <t>JARDINES DEL MIRADOR, Mirasol De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>8 dormitorios 2 banos 300 m2 utiles</t>
+          <t>3 dormitorios 3 banos 115 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Oficina En Excelente Ubicacion Arriendo Puerto Montt</t>
+          <t>Casa En Arriendo De 8 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>UF 38</t>
+          <t>UF 47 , 44</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>EDIFICIO O&amp;quot;HIGGINS, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Costado Mall Costanera, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>2 banos 130 m2 utiles</t>
+          <t>8 dormitorios 2 banos 300 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Casa En Arriendo Rebajada De 5d,4b En Altos De Panitao</t>
+          <t>Oficina En Excelente Ubicacion Arriendo Puerto Montt</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>UF 26 , 06</t>
+          <t>UF 38</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Lomas De Panitao, Puerto Montt</t>
+          <t>EDIFICIO O&amp;quot;HIGGINS, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>5 dormitorios 4 banos 200 m2 utiles</t>
+          <t>2 banos 130 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -9810,103 +9810,103 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 4 Dorm. En Puerto Montt</t>
+          <t>Casa En Arriendo Rebajada De 5d,4b En Altos De Panitao</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>UF 10 , 77</t>
+          <t>UF 26 , 06</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Artesanos De Alerce 3, Alerces, Puerto Montt</t>
+          <t>Lomas De Panitao, Puerto Montt</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>4 dormitorios 2 banos 90 m2 utiles</t>
+          <t>5 dormitorios 4 banos 200 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Arrendamos Depto.recien Remodelado 2d1b En La Paloma.</t>
+          <t>Casa En Arriendo De 4 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>UF 11 , 50</t>
+          <t>UF 10 , 77</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>La Paloma II, La Paloma, Puerto Montt</t>
+          <t>Artesanos De Alerce 3, Alerces, Puerto Montt</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 70 m2 utiles</t>
+          <t>4 dormitorios 2 banos 90 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Arrendamos Local Comercial En Puerto Montt</t>
+          <t>Arrendamos Depto.recien Remodelado 2d1b En La Paloma.</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>UF 13 , 20</t>
+          <t>UF 11 , 50</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Centro Comercial Villa Yolanda, Puerto Montt</t>
+          <t>La Paloma II, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>1 bano 28 m2 utiles</t>
+          <t>2 dormitorios 1 bano 70 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Bodega En Arriendo En Puerto Montt</t>
+          <t>Arrendamos Local Comercial En Puerto Montt</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>UF 84</t>
+          <t>UF 13 , 20</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>MC Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Centro Comercial Villa Yolanda, Puerto Montt</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>1 bano 428 m2 utiles</t>
+          <t>1 bano 28 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -9923,7 +9923,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>UF 65</t>
+          <t>UF 84</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>1 bano 362 m2 utiles</t>
+          <t>1 bano 428 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -9950,7 +9950,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>UF 266</t>
+          <t>UF 65</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>1 bano 1.363 m2 utiles</t>
+          <t>1 bano 362 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>UF 189 , 76</t>
+          <t>UF 266</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9987,34 +9987,34 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>1 bano 1.186 m2 utiles</t>
+          <t>1 bano 1.363 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Depto En Arriendo De 2d&amp;#43;3b&amp;#43;sala Estar. En Puerto Mon</t>
+          <t>Bodega En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>UF 18</t>
+          <t>UF 189 , 76</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Antares 1000, Puerto Montt</t>
+          <t>MC Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>2 dormitorios 3 banos 80 m2 utiles</t>
+          <t>1 bano 1.186 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -10026,103 +10026,103 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Departamento 3d/2b Condominio Alta Vista</t>
+          <t>Depto En Arriendo De 2d&amp;#43;3b&amp;#43;sala Estar. En Puerto Mon</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>UF 18</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Marta Colvin 1758, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Antares 1000, Puerto Montt</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 63 m2 utiles</t>
+          <t>2 dormitorios 3 banos 80 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Oficina Pleno Centro De Puerto Montt</t>
+          <t>Departamento 3d/2b Condominio Alta Vista</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>UF 12 , 50</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Egana 85, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Marta Colvin 1758, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>1 bano 32 m2 utiles</t>
+          <t>3 dormitorios 2 banos 63 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Bodega En Salida Norte De Puerto Montt, Excelente Ubicacion</t>
+          <t>Oficina Pleno Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>UF 60</t>
+          <t>UF 12 , 50</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>C. De Servicio 200, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Egana 85, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>5 privados 2 banos 600 m2 utiles</t>
+          <t>1 bano 32 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Depto Duplex En Arriendo 1 Dorm 1 Bano. En Puerto Montt</t>
+          <t>Bodega En Salida Norte De Puerto Montt, Excelente Ubicacion</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>UF 13</t>
+          <t>UF 60</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Antares 1000, Condominio Smart Reloncavi, Puerto Montt., Puerto Montt</t>
+          <t>C. De Servicio 200, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 47 m2 utiles</t>
+          <t>5 privados 2 banos 600 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -10134,22 +10134,22 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Arriendo Hermoso Departamento Nuevo Pelluco</t>
+          <t>Depto Duplex En Arriendo 1 Dorm 1 Bano. En Puerto Montt</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>$ 730.000</t>
+          <t>UF 13</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>ARRIENDO HERMOSO DEPARTAMENTO NUEVO PELLUCO, Puerto Montt</t>
+          <t>Antares 1000, Condominio Smart Reloncavi, Puerto Montt., Puerto Montt</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 75 m2 utiles</t>
+          <t>1 dormitorio 1 bano 47 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -10161,76 +10161,76 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Departamento Nuevo Central 2d/1b Vista Reloncavi</t>
+          <t>Arriendo Hermoso Departamento Nuevo Pelluco</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 730.000</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 85, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>ARRIENDO HERMOSO DEPARTAMENTO NUEVO PELLUCO, Puerto Montt</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 44 m2 utiles</t>
+          <t>3 dormitorios 2 banos 75 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Sitio 1817 M2 En Sector Industrial Cardonal</t>
+          <t>Departamento Nuevo Central 2d/1b Vista Reloncavi</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>UF 35</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>SITIO 1817 M2 EN SECTOR INDUSTRIAL CARDONAL, Mirasol De Puerto Montt, Puerto Montt</t>
+          <t>Francisco Bilbao 85, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>1.817 m2 utiles</t>
+          <t>2 dormitorios 1 bano 44 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Departamento Nuevo 1d/1b Condominio Portal Mirador</t>
+          <t>Sitio 1817 M2 En Sector Industrial Cardonal</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>UF 10 , 50</t>
+          <t>UF 35</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Sgto. Silva 1725, Puerto Montt, Puerto Montt</t>
+          <t>SITIO 1817 M2 EN SECTOR INDUSTRIAL CARDONAL, Mirasol De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 34 m2 utiles</t>
+          <t>1.817 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -10242,12 +10242,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Departamento Nuevo 2d/2b Condominio Portal Mirador</t>
+          <t>Departamento Nuevo 1d/1b Condominio Portal Mirador</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>UF 12</t>
+          <t>UF 10 , 50</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10257,88 +10257,88 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 52 m2 utiles</t>
+          <t>1 dormitorio 1 bano 34 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Acogedora Casa En Parcelacion Playa Chamiza</t>
+          <t>Departamento Nuevo 2d/2b Condominio Portal Mirador</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>$ 670.000</t>
+          <t>UF 12</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>KM 15 DE LA CARRETERA AUSTRAL, Puerto Montt</t>
+          <t>Sgto. Silva 1725, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 78 m2 utiles</t>
+          <t>2 dormitorios 2 banos 52 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Arriendo Bodega Puerto Montt 1.363 M2 - 265,60 Uf + Iva</t>
+          <t>Acogedora Casa En Parcelacion Playa Chamiza</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>UF 265 , 60</t>
+          <t>$ 670.000</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Ruta 5 900 - 1200, Puerto Montt, Puerto Montt</t>
+          <t>KM 15 DE LA CARRETERA AUSTRAL, Puerto Montt</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>3 privados 2 banos 1.363 m2 utiles</t>
+          <t>3 dormitorios 2 banos 78 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Moderno Depto 2d-1b En Vista Chinquihue, Puerto Montt</t>
+          <t>Arriendo Bodega Puerto Montt 1.363 M2 - 265,60 Uf + Iva</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>UF 265 , 60</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Av. Los Notros 1390, Puerto Montt, Puerto Montt</t>
+          <t>Ruta 5 900 - 1200, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 48 m2 utiles</t>
+          <t>3 privados 2 banos 1.363 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -10350,22 +10350,22 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Amplio Departamento 3d+3b+ Sala De Estar. Puerto Montt</t>
+          <t>Moderno Depto 2d-1b En Vista Chinquihue, Puerto Montt</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>UF 21</t>
+          <t>$ 480.000</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Antares 1000, Puerto Montt</t>
+          <t>Av. Los Notros 1390, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>3 dormitorios 3 banos 94 m2 utiles</t>
+          <t>2 dormitorios 1 bano 48 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -10377,238 +10377,238 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Arriendo Departamento 3d/2b Cerca Hospital Puerto Montt</t>
+          <t>Amplio Departamento 3d+3b+ Sala De Estar. Puerto Montt</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>UF 21</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Pozo Almonte 572, 5500280 Puerto Montt, Los Lagos, Chile, La Paloma, Puerto Montt</t>
+          <t>Antares 1000, Puerto Montt</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 67 m2 utiles</t>
+          <t>3 dormitorios 3 banos 94 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Arriendo Locales Comerciales En Centro De Puerto Montt</t>
+          <t>Arriendo Departamento 3d/2b Cerca Hospital Puerto Montt</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>$ 900.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Antonio Varas, Puerto Montt, Los Lagos, Chile, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Pozo Almonte 572, 5500280 Puerto Montt, Los Lagos, Chile, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>1 bano 90 m2 utiles</t>
+          <t>3 dormitorios 2 banos 67 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Departamento Central Dos Dormitorios Puerto Montt</t>
+          <t>Arriendo Locales Comerciales En Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>$ 115.000.000</t>
+          <t>$ 900.000</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Lawrence, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Antonio Varas, Puerto Montt, Los Lagos, Chile, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 70 m2 utiles</t>
+          <t>1 bano 90 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Bodega En Condominio, Puerto Montt</t>
+          <t>Departamento Central Dos Dormitorios Puerto Montt</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>UF 65</t>
+          <t>$ 115.000.000</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Caletera - Parque Industrial 428, 5.5005e+06 - 5.5008e+06 Puerto Montt, Los Lagos, Chile, Techo Para Todos, Puerto Montt</t>
+          <t>Lawrence, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>2 banos 362 m2 utiles</t>
+          <t>2 dormitorios 2 banos 70 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Arriendo Local Comercial Nuevo En Bosquemar No Hay G/c</t>
+          <t>Bodega En Condominio, Puerto Montt</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>$ 690.000</t>
+          <t>UF 65</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Caletera - Parque Industrial 428, 5.5005e+06 - 5.5008e+06 Puerto Montt, Los Lagos, Chile, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>1 bano 29 m2 utiles</t>
+          <t>2 banos 362 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Departamento Amoblado 1b/1d Cerca De La Pdi, Villa Antillanc</t>
+          <t>Arriendo Local Comercial Nuevo En Bosquemar No Hay G/c</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>$ 370.000</t>
+          <t>$ 690.000</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>CERCA DE LA PDI, VILLA ANTILLANCA, Puerto Montt</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 28 m2 utiles</t>
+          <t>1 bano 29 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Barrio Centro Puerto Montt</t>
+          <t>Departamento Amoblado 1b/1d Cerca De La Pdi, Villa Antillanc</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>UF 126</t>
+          <t>$ 370.000</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Barrio Centro Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>CERCA DE LA PDI, VILLA ANTILLANCA, Puerto Montt</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>1 bano 279 m2 utiles</t>
+          <t>1 dormitorio 1 bano 28 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Luz Y Confort: Depto 2d-1b Estacionamiento Vista Reloncavi</t>
+          <t>Barrio Centro Puerto Montt</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>$ 580.000</t>
+          <t>UF 126</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 419, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Barrio Centro Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 43 m2 utiles</t>
+          <t>1 bano 279 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Bodega En Condominio, Puerto Montt</t>
+          <t>Luz Y Confort: Depto 2d-1b Estacionamiento Vista Reloncavi</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>UF 189</t>
+          <t>$ 580.000</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Caletera - Parque Industrial 428, 5.5005e+06 - 5.5008e+06 Puerto Montt, Los Lagos, Chile, Techo Para Todos, Puerto Montt</t>
+          <t>Francisco Bilbao 419, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>2 banos 1.186 m2 utiles</t>
+          <t>2 dormitorios 1 bano 43 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>UF 265</t>
+          <t>UF 189</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>2 banos 1.363 m2 utiles</t>
+          <t>2 banos 1.186 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>UF 85</t>
+          <t>UF 265</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -10662,169 +10662,169 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>2 banos 428 m2 utiles</t>
+          <t>2 banos 1.363 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Amplia Casa En Arriendo</t>
+          <t>Bodega En Condominio, Puerto Montt</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>UF 85</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>FV3Q+3J Molinos, Puerto Montt, Chile, Puerto Montt</t>
+          <t>Caletera - Parque Industrial 428, 5.5005e+06 - 5.5008e+06 Puerto Montt, Los Lagos, Chile, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>3 dormitorios 3 banos 140 m2 utiles</t>
+          <t>2 banos 428 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Departamento Monoambiente Amoblado Y Equipado. Sector Lintz.</t>
+          <t>Amplia Casa En Arriendo</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>$ 350.000</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Buin 810, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>FV3Q+3J Molinos, Puerto Montt, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 17 m2 utiles</t>
+          <t>3 dormitorios 3 banos 140 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Casa Destino Comercial - Central En Via De Alto Trafico</t>
+          <t>Departamento Monoambiente Amoblado Y Equipado. Sector Lintz.</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 350.000</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Rio Puelche 1, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Buin 810, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>1 bano 80 m2 utiles</t>
+          <t>1 dormitorio 1 bano 17 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Oficina Centro Puerto Montt</t>
+          <t>Casa Destino Comercial - Central En Via De Alto Trafico</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>UF 25</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Pedro Montt, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Rio Puelche 1, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>1 privado 2 banos 97 m2 utiles</t>
+          <t>1 bano 80 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Oportunidad Unica De Arriendo, En El Corazon De Pto Montt</t>
+          <t>Oficina Centro Puerto Montt</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>UF 180</t>
+          <t>UF 25</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>OPORTUNIDAD UNICA DE ARRIENDO, EN EL CORAZON DE PTO MONTT, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Pedro Montt, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>3 banos 382 m2 utiles</t>
+          <t>1 privado 2 banos 97 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Arrienda Casa Nueva En Parque Campomar</t>
+          <t>Oportunidad Unica De Arriendo, En El Corazon De Pto Montt</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>UF 30</t>
+          <t>UF 180</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Carr. Austral, Quillaipe, Puerto Montt, Puerto Montt</t>
+          <t>OPORTUNIDAD UNICA DE ARRIENDO, EN EL CORAZON DE PTO MONTT, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 120 m2 utiles</t>
+          <t>3 banos 382 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -10836,196 +10836,196 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Se Arrienda Hermosa Casa Habitacion En Parcela 5000 Mts2</t>
+          <t>Arrienda Casa Nueva En Parque Campomar</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>$ 1.200.000</t>
+          <t>UF 30</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Chamiza, Puerto Montt, Puerto Montt</t>
+          <t>Carr. Austral, Quillaipe, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>4 dormitorios 3 banos 220 m2 utiles</t>
+          <t>3 dormitorios 2 banos 120 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Bodega Puerto Montt</t>
+          <t>Se Arrienda Hermosa Casa Habitacion En Parcela 5000 Mts2</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>UF 50</t>
+          <t>$ 1.200.000</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>PUERTO MONTT, Puerto Montt</t>
+          <t>Chamiza, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>10.000 m2 utiles</t>
+          <t>4 dormitorios 3 banos 220 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Casa Nueva 3 Dormitorios En Parque Fundadores Puerto Montt</t>
+          <t>Bodega Puerto Montt</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>UF 50</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>C. Velero Meteoro 912, Puerto Montt, Los Lagos, Chile, Alerces, Puerto Montt</t>
+          <t>PUERTO MONTT, Puerto Montt</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 82 m2 utiles</t>
+          <t>10.000 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Departamento Cercano A Hospital, Puerto Montt</t>
+          <t>Casa Nueva 3 Dormitorios En Parque Fundadores Puerto Montt</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>$ 520.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Monsenor Ramon Monita SN, La Paloma, Puerto Montt</t>
+          <t>C. Velero Meteoro 912, Puerto Montt, Los Lagos, Chile, Alerces, Puerto Montt</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 45 m2 utiles</t>
+          <t>3 dormitorios 2 banos 82 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 3 Dorm. En Puerto Montt</t>
+          <t>Departamento Cercano A Hospital, Puerto Montt</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>$ 800.000</t>
+          <t>$ 520.000</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Mirador De La Bahia, La Paloma, Puerto Montt</t>
+          <t>Monsenor Ramon Monita SN, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>3 dormitorios 3 banos 110 m2 utiles</t>
+          <t>2 dormitorios 1 bano 45 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Arriendo Edificio Comercial En El Corazon De Puerto Montt</t>
+          <t>Casa En Arriendo De 3 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>UF 1 , 20</t>
+          <t>$ 800.000</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>ARRIENDO EDIFICIO COMERCIAL EN EL CORAZON DE PUERTO MONTT, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Mirador De La Bahia, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>7 banos 306 m2 utiles</t>
+          <t>3 dormitorios 3 banos 110 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Arriendo Casa En Parcela Carretera Austral Puerto Montt</t>
+          <t>Arriendo Edificio Comercial En El Corazon De Puerto Montt</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>UF 1 , 20</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>F64V+6C Quillaipe, Puerto Montt, Chile, Puerto Montt</t>
+          <t>ARRIENDO EDIFICIO COMERCIAL EN EL CORAZON DE PUERTO MONTT, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 100 m2 utiles</t>
+          <t>7 banos 306 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Parcela en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Parcela Con Casa En Arriendo En Puerto Montt</t>
+          <t>Arriendo Casa En Parcela Carretera Austral Puerto Montt</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>F63V+XQ Quillaipe, Puerto Montt, Chile, Puerto Montt</t>
+          <t>F64V+6C Quillaipe, Puerto Montt, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -11047,81 +11047,81 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Parcela en arriendo</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Se Arrienda Propiedad Comercial En Manuel Montt En P.montt</t>
+          <t>Parcela Con Casa En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>$ 1.400.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Martin Skoruppa 99, Puerto Montt, Puerto Montt</t>
+          <t>F63V+XQ Quillaipe, Puerto Montt, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>3 banos 153 m2 utiles</t>
+          <t>3 dormitorios 2 banos 100 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Se Arrienda Dpto 3 Dormitorios, Sector Pelluco, Puerto Montt</t>
+          <t>Se Arrienda Propiedad Comercial En Manuel Montt En P.montt</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 1.400.000</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Av. Puerto Montt 1680, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Martin Skoruppa 99, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 77 m2 utiles</t>
+          <t>3 banos 153 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 3d3b Avenida Austral</t>
+          <t>Se Arrienda Dpto 3 Dormitorios, Sector Pelluco, Puerto Montt</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>UF 19 , 36</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Condominio Aires Del Sur Avenida Austral, La Paloma, Puerto Montt</t>
+          <t>Av. Puerto Montt 1680, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>3 dormitorios 3 banos 85 m2 utiles</t>
+          <t>3 dormitorios 2 banos 77 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11133,22 +11133,22 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Amplia Cas En Condominio Cerrado , Valle Volcanes</t>
+          <t>Casa En Arriendo De 3d3b Avenida Austral</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>UF 19 , 36</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Pje. Maule, Puerto Montt, La Paloma, Puerto Montt</t>
+          <t>Condominio Aires Del Sur Avenida Austral, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>3 dormitorios 3 banos 200 m2 utiles</t>
+          <t>3 dormitorios 3 banos 85 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11160,22 +11160,22 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Casa Esquina En Cond. Mirador De Volcanes Pto Montt</t>
+          <t>Amplia Cas En Condominio Cerrado , Valle Volcanes</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>BOSQUEMAR, Puerto Montt</t>
+          <t>Pje. Maule, Puerto Montt, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 69 m2 utiles</t>
+          <t>3 dormitorios 3 banos 200 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11187,22 +11187,22 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Gran Casa En Arriendo 450 M2 Construidos En Parcela De 5000</t>
+          <t>Casa Esquina En Cond. Mirador De Volcanes Pto Montt</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>$ 1.500.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Camino Alerce, Sector La Vara, Puerto Montt, Los Lagos, Chile, Alerces, Puerto Montt</t>
+          <t>BOSQUEMAR, Puerto Montt</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>5 dormitorios 4 banos 450 m2 utiles</t>
+          <t>3 dormitorios 2 banos 69 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11214,49 +11214,49 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 3d2b En Valle Volcanes Puerto Montt</t>
+          <t>Gran Casa En Arriendo 450 M2 Construidos En Parcela De 5000</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>UF 28 , 52</t>
+          <t>$ 1.500.000</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Valle Volcanes, La Paloma, Puerto Montt</t>
+          <t>Camino Alerce, Sector La Vara, Puerto Montt, Los Lagos, Chile, Alerces, Puerto Montt</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 195 m2 utiles</t>
+          <t>5 dormitorios 4 banos 450 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Arriendo Cabana En Puerto Montt</t>
+          <t>Casa En Arriendo De 3d2b En Valle Volcanes Puerto Montt</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>$ 400.000</t>
+          <t>UF 28 , 52</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Villa Pancul, Quillaipe, Puerto Montt, Chile, Puerto Montt</t>
+          <t>Valle Volcanes, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 45 m2 utiles</t>
+          <t>3 dormitorios 2 banos 195 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11268,130 +11268,130 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Arriendo Departamento Dos Dormitorios En Puerto Montt</t>
+          <t>Arriendo Cabana En Puerto Montt</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>$ 530.000</t>
+          <t>$ 400.000</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Av. Marcelo Fourcade 4867, Puerto Montt, La Paloma, Puerto Montt</t>
+          <t>Villa Pancul, Quillaipe, Puerto Montt, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 49 m2 utiles</t>
+          <t>1 dormitorio 1 bano 45 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Casa En Arriendo De 2d2b En Mirador De La Bahia Puerto Montt</t>
+          <t>Arriendo Departamento Dos Dormitorios En Puerto Montt</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>UF 24 , 23</t>
+          <t>$ 530.000</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>MIRADOR DE LA BAHIA, La Paloma, Puerto Montt</t>
+          <t>Av. Marcelo Fourcade 4867, Puerto Montt, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 100 m2 utiles</t>
+          <t>2 dormitorios 1 bano 49 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Se Arriendan Ultimos Dos Loft, Jardin Autral, Puerto Montt.</t>
+          <t>Casa En Arriendo De 2d2b En Mirador De La Bahia Puerto Montt</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>$ 300.000</t>
+          <t>UF 24 , 23</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Lago Huesca, Puerto Montt, La Paloma, Puerto Montt</t>
+          <t>MIRADOR DE LA BAHIA, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 20 m2 utiles</t>
+          <t>2 dormitorios 2 banos 100 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Valle Volcanes</t>
+          <t>Se Arriendan Ultimos Dos Loft, Jardin Autral, Puerto Montt.</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 300.000</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>VALLE VOLCANES, Puerto Montt</t>
+          <t>Lago Huesca, Puerto Montt, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>3 dormitorios 3 banos 89.000 m2 utiles</t>
+          <t>1 dormitorio 1 bano 20 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Departamento Alta Vista, Puerto Varas</t>
+          <t>Valle Volcanes</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Monsenor Ramon Munita SN, Centro De Puerto Montt, Puerto Montt</t>
+          <t>VALLE VOLCANES, Puerto Montt</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 53 m2 utiles</t>
+          <t>3 dormitorios 3 banos 89.000 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11403,7 +11403,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo En Puerto Montt</t>
+          <t>Departamento Alta Vista, Puerto Varas</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11413,12 +11413,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 85, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Monsenor Ramon Munita SN, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 36 m2 utiles</t>
+          <t>2 dormitorios 1 bano 53 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11430,7 +11430,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Departamento Dos Dormitorios Dos Banos En Puerto Montt</t>
+          <t>Departamento En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -11440,12 +11440,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>C. San Javier 1020, Puerto Montt, Puerto Montt</t>
+          <t>Francisco Bilbao 85, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 52 m2 utiles</t>
+          <t>2 dormitorios 1 bano 36 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11457,22 +11457,22 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Arriendo Departamento Nuevo Valle Volcanes</t>
+          <t>Departamento Dos Dormitorios Dos Banos En Puerto Montt</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Cerro Tronador 4981, 5480000 Puerto Montt, Los Lagos, Chile, La Paloma, Puerto Montt</t>
+          <t>C. San Javier 1020, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 52 m2 utiles</t>
+          <t>2 dormitorios 2 banos 52 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11484,22 +11484,22 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Se Arrienda Departamento Amoblado En Puerto Montt</t>
+          <t>Arriendo Departamento Nuevo Valle Volcanes</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 362, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Cerro Tronador 4981, 5480000 Puerto Montt, Los Lagos, Chile, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 31 m2 utiles</t>
+          <t>2 dormitorios 1 bano 52 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11511,22 +11511,22 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo En Puerto Montt</t>
+          <t>Se Arrienda Departamento Amoblado En Puerto Montt</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 85, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Francisco Bilbao 362, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 36 m2 utiles</t>
+          <t>1 dormitorio 1 bano 31 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11543,17 +11543,17 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>UF 15</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Avenida Cuarta Terraza 1860 - Alta Vista 3, Puerto Montt</t>
+          <t>Francisco Bilbao 85, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 53 m2 utiles</t>
+          <t>2 dormitorios 1 bano 36 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11565,211 +11565,211 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Nuevo Departamento Amoblado En Edificio Vista Reloncavi</t>
+          <t>Departamento En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>UF 15</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 15, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Avenida Cuarta Terraza 1860 - Alta Vista 3, Puerto Montt</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 51 m2 utiles</t>
+          <t>2 dormitorios 1 bano 53 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Se Arrienda Casa 2d Y 1b, Jardin Austral, Puerto Montt</t>
+          <t>Nuevo Departamento Amoblado En Edificio Vista Reloncavi</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Salto De Compostela, Puerto Montt, La Paloma, Puerto Montt</t>
+          <t>Francisco Bilbao 15, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 54 m2 utiles</t>
+          <t>2 dormitorios 1 bano 51 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Moderno Departamento Con Gastos Comunes Incluidos</t>
+          <t>Se Arrienda Casa 2d Y 1b, Jardin Austral, Puerto Montt</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>EDIFICIO AVANT GARDE, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Salto De Compostela, Puerto Montt, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 45 m2 utiles</t>
+          <t>2 dormitorios 1 bano 54 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Local Comercial En Arriendo En Puerto Montt 445 M2</t>
+          <t>Moderno Departamento Con Gastos Comunes Incluidos</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>UF 169 , 60</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Benavente Con Baquedano, Centro De Puerto Montt, Puerto Montt</t>
+          <t>EDIFICIO AVANT GARDE, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>10 banos 445 m2 utiles</t>
+          <t>1 dormitorio 1 bano 45 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Arriendo Bodega De 972 M2, Chin Chin, Puerto Montt.</t>
+          <t>Local Comercial En Arriendo En Puerto Montt 445 M2</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>UF 181</t>
+          <t>UF 169 , 60</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Benavente Con Baquedano, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>3 privados 2 banos 936 m2 utiles</t>
+          <t>10 banos 445 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Se Arrienda Local Comercial</t>
+          <t>Arriendo Bodega De 972 M2, Chin Chin, Puerto Montt.</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>UF 181</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>CENTRO COMERCIAL RAMON MUNITA, Puerto Montt</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>1 bano 27 m2 utiles</t>
+          <t>3 privados 2 banos 936 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Arriendo Casa En Jardin Austral 3 Dormitorios</t>
+          <t>Se Arrienda Local Comercial</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>$ 680.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>SECTOR HACIENDO LOS LAGOS JARDIN AUSTRAL, La Paloma, Puerto Montt</t>
+          <t>CENTRO COMERCIAL RAMON MUNITA, Puerto Montt</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>3 dormitorios 3 banos 80 m2 utiles</t>
+          <t>1 bano 27 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Arriendo Depto 2d2b Con Gastos Incluidos En Puerto Montt</t>
+          <t>Arriendo Casa En Jardin Austral 3 Dormitorios</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>UF 12 , 74</t>
+          <t>$ 680.000</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Parque Pucalan, La Paloma, Puerto Montt</t>
+          <t>SECTOR HACIENDO LOS LAGOS JARDIN AUSTRAL, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 50 m2 utiles</t>
+          <t>3 dormitorios 3 banos 80 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11781,22 +11781,22 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Hermoso Departamento Independiente, Poblacion Manuel Montt</t>
+          <t>Arriendo Depto 2d2b Con Gastos Incluidos En Puerto Montt</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>$ 300.000</t>
+          <t>UF 12 , 74</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Francisco Geisse 286, 5501435 Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Parque Pucalan, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 34 m2 utiles</t>
+          <t>2 dormitorios 2 banos 50 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11808,22 +11808,22 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Calle Lawrence No.308 A 1 Cuadra Del Jumbo</t>
+          <t>Hermoso Departamento Independiente, Poblacion Manuel Montt</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 300.000</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>ESQUINA EJERCITO AL LADO DE LA ACHS A 1 CUADRA DEL JUMBO, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Francisco Geisse 286, 5501435 Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>5 dormitorios 1 bano 120 m2 utiles</t>
+          <t>1 dormitorio 1 bano 34 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11835,103 +11835,103 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Moderno Depto 2d-1b En Vista Chinquihue, Puerto Montt</t>
+          <t>Calle Lawrence No.308 A 1 Cuadra Del Jumbo</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Av. Los Notros 1390, Puerto Montt, Puerto Montt</t>
+          <t>ESQUINA EJERCITO AL LADO DE LA ACHS A 1 CUADRA DEL JUMBO, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 48 m2 utiles</t>
+          <t>5 dormitorios 1 bano 120 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Inmueble Comercial Peri Centro Puerto Montt Disponible Ahora</t>
+          <t>Moderno Depto 2d-1b En Vista Chinquihue, Puerto Montt</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>$ 1.000.000</t>
+          <t>$ 480.000</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Ancud 139, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Av. Los Notros 1390, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>2 banos 160 m2 utiles</t>
+          <t>2 dormitorios 1 bano 48 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Terreno en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Se Arrienda Terreno Comercial En Puerto Montt</t>
+          <t>Inmueble Comercial Peri Centro Puerto Montt Disponible Ahora</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>UF 36</t>
+          <t>$ 1.000.000</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Polpaico, Puerto Montt, Puerto Montt</t>
+          <t>Ancud 139, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>1.449 m2 totales</t>
+          <t>2 banos 160 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Terreno en arriendo</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Departamento Bellavista Puerto Montt</t>
+          <t>Se Arrienda Terreno Comercial En Puerto Montt</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>$ 83.000.000</t>
+          <t>UF 36</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Bellavisto ,Puerto Montt SN, Ebensperger - Chorrillos, Puerto Montt</t>
+          <t>Polpaico, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 66 m2 utiles</t>
+          <t>1.449 m2 totales</t>
         </is>
       </c>
     </row>
@@ -11943,22 +11943,22 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Arriendo Departamento Amoblado 3d1b En La Paloma Iii</t>
+          <t>Departamento Bellavista Puerto Montt</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>UF 12 , 70</t>
+          <t>$ 83.000.000</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Alto La Paloma III, La Paloma, Puerto Montt</t>
+          <t>Bellavisto ,Puerto Montt SN, Ebensperger - Chorrillos, Puerto Montt</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 53 m2 utiles</t>
+          <t>3 dormitorios 2 banos 66 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11970,22 +11970,22 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Se Arrienda Departamento 2d Y 2b, Av Austral, Puerto Montt.</t>
+          <t>Arriendo Departamento Amoblado 3d1b En La Paloma Iii</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>UF 12 , 70</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Av. Austral 1727, Puerto Montt, La Paloma, Puerto Montt</t>
+          <t>Alto La Paloma III, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 74 m2 utiles</t>
+          <t>3 dormitorios 1 bano 53 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -11997,22 +11997,22 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Departamento Amoblado Central</t>
+          <t>Se Arrienda Departamento 2d Y 2b, Av Austral, Puerto Montt.</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Engana SN, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Av. Austral 1727, Puerto Montt, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 43 m2 utiles</t>
+          <t>2 dormitorios 2 banos 74 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12024,103 +12024,103 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Depto. Nuevo En Arriendo - Colegio San Javier, P. Montt</t>
+          <t>Departamento Amoblado Central</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>$ 430.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Ciclovia Ex-Via Ferrea, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Engana SN, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 31 m2 utiles</t>
+          <t>2 dormitorios 1 bano 43 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Locales Comerciales Disponibles Nueva Galeria Vinals Centro</t>
+          <t>Depto. Nuevo En Arriendo - Colegio San Javier, P. Montt</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>UF 1</t>
+          <t>$ 430.000</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Antonio Varas 980, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Ciclovia Ex-Via Ferrea, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>3 banos 25 m2 utiles</t>
+          <t>1 dormitorio 1 bano 31 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Oficina En Arriendo En Puerto Montt</t>
+          <t>Locales Comerciales Disponibles Nueva Galeria Vinals Centro</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>UF 1</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Lawrence, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Antonio Varas 980, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>3 privados 1 bano 70 m2 utiles</t>
+          <t>3 banos 25 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Departamento Nuevo En Arriendo 1 Dorm Pelluco</t>
+          <t>Oficina En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>$ 420.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO NUEVO EN ARRIENDO 1 DORM PELLUCO, Puerto Montt</t>
+          <t>Lawrence, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 30 m2 utiles</t>
+          <t>3 privados 1 bano 70 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12132,49 +12132,49 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Se Arrienda Pequeno Depto Interior Solo Una Persona Sin/est</t>
+          <t>Departamento Nuevo En Arriendo 1 Dorm Pelluco</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>$ 250.000</t>
+          <t>$ 420.000</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Volcan Villarrica 1001, 5505101 Puerto Montt, Los Lagos, Chile, Mirasol De Puerto Montt, Puerto Montt</t>
+          <t>DEPARTAMENTO NUEVO EN ARRIENDO 1 DORM PELLUCO, Puerto Montt</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 20 m2 utiles</t>
+          <t>1 dormitorio 1 bano 30 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Se Arriendan Oficinas En Edificio Valenti, Cento Pto Montt.</t>
+          <t>Se Arrienda Pequeno Depto Interior Solo Una Persona Sin/est</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>$ 295.000</t>
+          <t>$ 250.000</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>San Martin 230, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Volcan Villarrica 1001, 5505101 Puerto Montt, Los Lagos, Chile, Mirasol De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>1 privado 1 bano 20 m2 utiles</t>
+          <t>1 dormitorio 1 bano 20 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12186,22 +12186,22 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>A Una Cuadra De Sargento Silva</t>
+          <t>Se Arriendan Oficinas En Edificio Valenti, Cento Pto Montt.</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>$ 160.000</t>
+          <t>$ 295.000</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>A UNA CUADRA DE SARGENTO SILVA, Puerto Montt</t>
+          <t>San Martin 230, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>1 bano 7 m2 utiles</t>
+          <t>1 privado 1 bano 20 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12213,130 +12213,130 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Oficina En Arriendo</t>
+          <t>A Una Cuadra De Sargento Silva</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>$ 3.000.000</t>
+          <t>$ 160.000</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Quillota 175, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>A UNA CUADRA DE SARGENTO SILVA, Puerto Montt</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>2 banos 240 m2 utiles</t>
+          <t>1 bano 7 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Excelente Estandar. Seguridad. Inmediato Acceso A Ruta 5 Sur</t>
+          <t>Oficina En Arriendo</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>UF 265</t>
+          <t>$ 3.000.000</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Ruta Cinco Sur Servicio 1200 - 1500, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Quillota 175, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>4 privados 3 banos 1.363 m2 utiles</t>
+          <t>2 banos 240 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Arriendo Departamento Un Dormitorio Cercano Al Jumbo</t>
+          <t>Excelente Estandar. Seguridad. Inmediato Acceso A Ruta 5 Sur</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>$ 420.000</t>
+          <t>UF 265</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Buin 356, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Ruta Cinco Sur Servicio 1200 - 1500, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 40 m2 utiles</t>
+          <t>4 privados 3 banos 1.363 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Arriendo Oficinas</t>
+          <t>Arriendo Departamento Un Dormitorio Cercano Al Jumbo</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>$ 2.500.000</t>
+          <t>$ 420.000</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Buin 361, 5501880 Puerto Montt, Los Lagos, Chile, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Buin 356, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>5 privados 5 banos 240 m2 utiles</t>
+          <t>1 dormitorio 1 bano 40 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo De 2 Dorm. En Puerto Montt</t>
+          <t>Arriendo Oficinas</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>$ 2.500.000</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>CONDOMINIO VISTA CHINQUIHUE, Puerto Montt</t>
+          <t>Buin 361, 5501880 Puerto Montt, Los Lagos, Chile, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 51 m2 utiles</t>
+          <t>5 privados 5 banos 240 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12348,22 +12348,22 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Centrico Departamento 1d 1b En Edificio Ochagavia</t>
+          <t>Departamento En Arriendo De 2 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>UF 13</t>
+          <t>$ 480.000</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Lota 435, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>CONDOMINIO VISTA CHINQUIHUE, Puerto Montt</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 40 m2 utiles</t>
+          <t>2 dormitorios 1 bano 51 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12375,49 +12375,49 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Arriendo Departamento Valle Volcanes</t>
+          <t>Centrico Departamento 1d 1b En Edificio Ochagavia</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>$ 400.000</t>
+          <t>UF 13</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>VALLE VOLCANES SN, La Paloma, Puerto Montt</t>
+          <t>Lota 435, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 60 m2 utiles</t>
+          <t>1 dormitorio 1 bano 40 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Arrienda Bodega En Parque Industrial</t>
+          <t>Arriendo Departamento Valle Volcanes</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>UF 36</t>
+          <t>$ 400.000</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Los Pelues, Puerto Montt, Techo Para Todos, Puerto Montt</t>
+          <t>VALLE VOLCANES SN, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>3 privados 2 banos 220 m2 utiles</t>
+          <t>3 dormitorios 1 bano 60 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12429,22 +12429,22 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Bodega Industrial Puerto Montt</t>
+          <t>Arrienda Bodega En Parque Industrial</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>UF 85</t>
+          <t>UF 36</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Av. Cardonal 1200 - 1500, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Los Pelues, Puerto Montt, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>2 banos 436 m2 utiles</t>
+          <t>3 privados 2 banos 220 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12456,130 +12456,130 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Arriendo Bodega 437m2 Puerto Montt - Sector Av. Cardonal</t>
+          <t>Bodega Industrial Puerto Montt</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>UF 83</t>
+          <t>UF 85</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>ARRIENDO BODEGA 437M2 PUERTO MONTT - SECTOR AV. CARDONAL, Techo Para Todos, Puerto Montt</t>
+          <t>Av. Cardonal 1200 - 1500, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>436 m2 utiles</t>
+          <t>2 banos 436 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Se Arrienda Bodega Y Oficinas</t>
+          <t>Arriendo Bodega 437m2 Puerto Montt - Sector Av. Cardonal</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>UF 200</t>
+          <t>UF 83</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Andina 85, Puerto Montt, Puerto Montt</t>
+          <t>ARRIENDO BODEGA 437M2 PUERTO MONTT - SECTOR AV. CARDONAL, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>3 banos 850 m2 utiles</t>
+          <t>436 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Arrienda Departamento En Condominio Volcanes 2</t>
+          <t>Se Arrienda Bodega Y Oficinas</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>$ 400.000</t>
+          <t>UF 200</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Calle Nueva Ote. 4 5513, Puerto Montt, Puerto Montt</t>
+          <t>Andina 85, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 50 m2 utiles</t>
+          <t>3 banos 850 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Local En Arriendo</t>
+          <t>Arrienda Departamento En Condominio Volcanes 2</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>$ 700.000</t>
+          <t>$ 400.000</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Antonio Varas 727, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Calle Nueva Ote. 4 5513, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>1 bano 30 m2 utiles</t>
+          <t>2 dormitorios 1 bano 50 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Bodega Industrial Puerto Montt</t>
+          <t>Local En Arriendo</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>UF 84 , 08</t>
+          <t>$ 700.000</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Carretera Panamericana Sur, Puerto Montt</t>
+          <t>Antonio Varas 727, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>1 bano 428 m2 utiles</t>
+          <t>1 bano 30 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>UF 189 , 76</t>
+          <t>UF 84 , 08</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -12606,7 +12606,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>1.186 m2 utiles</t>
+          <t>1 bano 428 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>UF 265 , 60</t>
+          <t>UF 189 , 76</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>2 banos 1.363 m2 utiles</t>
+          <t>1.186 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12650,7 +12650,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>UF 84 , 30</t>
+          <t>UF 265 , 60</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -12660,61 +12660,61 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>1 bano 428 m2 utiles</t>
+          <t>2 banos 1.363 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Local Comercial, Puerto Montt</t>
+          <t>Bodega Industrial Puerto Montt</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>UF 180</t>
+          <t>UF 84 , 30</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Urmeneta 541, 5502857 Puerto Montt, Los Lagos, Chile, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Carretera Panamericana Sur, Puerto Montt</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>2 banos 571 m2 utiles</t>
+          <t>1 bano 428 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Bodega En Arriendo</t>
+          <t>Local Comercial, Puerto Montt</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>UF 194</t>
+          <t>UF 180</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Pje Estacion Galvarino 2286, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Urmeneta 541, 5502857 Puerto Montt, Los Lagos, Chile, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>2 privados 4 banos 1.000 m2 utiles</t>
+          <t>2 banos 571 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12726,103 +12726,103 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Bodega Industrial En Arriendo En Puerto Montt</t>
+          <t>Bodega En Arriendo</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>UF 85</t>
+          <t>UF 194</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Barrio Industrial, Techo Para Todos, Puerto Montt</t>
+          <t>Pje Estacion Galvarino 2286, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>436 m2 utiles</t>
+          <t>2 privados 4 banos 1.000 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Comoda Cabana A Pasos De Hospital Puerto Montt</t>
+          <t>Bodega Industrial En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>$ 360.000</t>
+          <t>UF 85</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>C. Paipote 44, Puerto Montt, Puerto Montt</t>
+          <t>Barrio Industrial, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 46 m2 utiles</t>
+          <t>436 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Industrial En Arriendo En Puerto Montt</t>
+          <t>Comoda Cabana A Pasos De Hospital Puerto Montt</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>UF 85</t>
+          <t>$ 360.000</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Barrio Industrial, Techo Para Todos, Puerto Montt</t>
+          <t>C. Paipote 44, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>436 m2 utiles</t>
+          <t>2 dormitorios 1 bano 46 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Parcela 6.000m2 En Avellanos De Trapen 5 Dormitorios 4 Banos</t>
+          <t>Industrial En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>$ 950.000</t>
+          <t>UF 85</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Los Helechos 34, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Barrio Industrial, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>5 dormitorios 4 banos 125 m2 utiles</t>
+          <t>436 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12834,22 +12834,22 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Arriendo! Amplia Casa Mirador De La Bahia, Puerto Montt</t>
+          <t>Parcela 6.000m2 En Avellanos De Trapen 5 Dormitorios 4 Banos</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>$ 960.000</t>
+          <t>$ 950.000</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Av. Austral, Puerto Montt, La Paloma, Puerto Montt</t>
+          <t>Los Helechos 34, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>4 dormitorios 3 banos 189 m2 utiles</t>
+          <t>5 dormitorios 4 banos 125 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12861,22 +12861,22 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Chamiza! Acogedora Cabana, Terraza, Puerto Montt</t>
+          <t>Arriendo! Amplia Casa Mirador De La Bahia, Puerto Montt</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>$ 960.000</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Chamiza, Puerto Montt, Puerto Montt</t>
+          <t>Av. Austral, Puerto Montt, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 65 m2 utiles</t>
+          <t>4 dormitorios 3 banos 189 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -12888,373 +12888,373 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Arrienda Casa En Nueva Oriente 4</t>
+          <t>Chamiza! Acogedora Cabana, Terraza, Puerto Montt</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Nueva Oriente 4, Puerto Montt, Puerto Montt</t>
+          <t>Chamiza, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 95 m2 utiles</t>
+          <t>3 dormitorios 1 bano 65 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Local En Arriendo</t>
+          <t>Arrienda Casa En Nueva Oriente 4</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>$ 350.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Antonio Varas 727, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Nueva Oriente 4, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>1 bano 21 m2 utiles</t>
+          <t>3 dormitorios 2 banos 95 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Arrienda Departamento Amoblado En Alto Pelluco 2</t>
+          <t>Local En Arriendo</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>$ 490.000</t>
+          <t>$ 350.000</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>C. San Javier, Puerto Montt, Puerto Montt</t>
+          <t>Antonio Varas 727, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 53 m2 utiles</t>
+          <t>1 bano 21 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Local Comercial En Presidente Ibanez, Puerto Montt</t>
+          <t>Arrienda Departamento Amoblado En Alto Pelluco 2</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>UF 31</t>
+          <t>$ 490.000</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Av. Pdte. Ibanez, Puerto Montt, Puerto Montt</t>
+          <t>C. San Javier, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>2 banos 100 m2 utiles</t>
+          <t>2 dormitorios 2 banos 53 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Arrienda Departamento En Condominio Volcanes 2</t>
+          <t>Local Comercial En Presidente Ibanez, Puerto Montt</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>$ 400.000</t>
+          <t>UF 31</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Nueva Oriente 4, Puerto Montt, Puerto Montt</t>
+          <t>Av. Pdte. Ibanez, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 60 m2 utiles</t>
+          <t>2 banos 100 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Se Arrienda Bodega En Chinchin, Loteo San Joaquin</t>
+          <t>Arrienda Departamento En Condominio Volcanes 2</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>$ 2.400.000</t>
+          <t>$ 400.000</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Parque San Joaquin 8, Puerto Montt, Puerto Montt</t>
+          <t>Nueva Oriente 4, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>1 privado 2 banos 424 m2 utiles</t>
+          <t>2 dormitorios 2 banos 60 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Amplio Dpto 73 M2 3 Dorm 2 Banos Brisas Del Mar Pelluco</t>
+          <t>Se Arrienda Bodega En Chinchin, Loteo San Joaquin</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 2.400.000</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Buenos Aires 1971, Puerto Montt, Puerto Montt</t>
+          <t>Parque San Joaquin 8, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 73 m2 utiles</t>
+          <t>1 privado 2 banos 424 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Terreno en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Arriendo Amplio Terreno Con Casa En Cuesta Chinquihue</t>
+          <t>Amplio Dpto 73 M2 3 Dorm 2 Banos Brisas Del Mar Pelluco</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>$ 1.200.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Avenida Chinquihue Km 14. 28, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Buenos Aires 1971, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>1.500 m2 totales</t>
+          <t>3 dormitorios 2 banos 73 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Terreno en arriendo</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Nuevo Departamento Duplex Monoambiente Cerca Del Centro.</t>
+          <t>Arriendo Amplio Terreno Con Casa En Cuesta Chinquihue</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>$ 440.000</t>
+          <t>$ 1.200.000</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Buin 810, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Avenida Chinquihue Km 14. 28, Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 49 m2 utiles</t>
+          <t>1.500 m2 totales</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Oficina Centro. Puerto Montt</t>
+          <t>Nuevo Departamento Duplex Monoambiente Cerca Del Centro.</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>UF 12 , 50</t>
+          <t>$ 440.000</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Pedro Montt, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Buin 810, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>1 privado 1 bano 50 m2 utiles</t>
+          <t>1 dormitorio 1 bano 49 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Arriendo Local Comercial</t>
+          <t>Oficina Centro. Puerto Montt</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>$ 4.800.000</t>
+          <t>UF 12 , 50</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Egana 123, Puerto Montt, Los Lagos, Chile, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Pedro Montt, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>5 banos 450 m2 utiles</t>
+          <t>1 privado 1 bano 50 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Departamento Nuevo, Amoblado Y Equipado. Sector Lintz.</t>
+          <t>Arriendo Local Comercial</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>$ 380.000</t>
+          <t>$ 4.800.000</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Buin 810, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Egana 123, Puerto Montt, Los Lagos, Chile, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 18 m2 utiles</t>
+          <t>5 banos 450 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Oficina Centro, Puerto Montt</t>
+          <t>Departamento Nuevo, Amoblado Y Equipado. Sector Lintz.</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>UF 13 , 50</t>
+          <t>$ 380.000</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Concepcion 120, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Buin 810, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>2 privados 1 bano 55 m2 utiles</t>
+          <t>1 dormitorio 1 bano 18 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Bodega En Arriendo En Puerto Montt</t>
+          <t>Oficina Centro, Puerto Montt</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>UF 480</t>
+          <t>UF 13 , 50</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Chinquihue Alto , A La Altura Del Puerto Granelero De Oxxean, Puerto Montt</t>
+          <t>Concepcion 120, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>5.500 m2 utiles</t>
+          <t>2 privados 1 bano 55 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13266,22 +13266,22 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Excelente Estandar. Seguridad. Inmediato A Ruta 5 Sur</t>
+          <t>Bodega En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>UF 85</t>
+          <t>UF 480</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Av. Cardonal 1 - 300, Mirasol De Puerto Montt, Puerto Montt</t>
+          <t>Chinquihue Alto , A La Altura Del Puerto Granelero De Oxxean, Puerto Montt</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>2 banos 437 m2 utiles</t>
+          <t>5.500 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13293,103 +13293,103 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Bodega En Arriendo</t>
+          <t>Excelente Estandar. Seguridad. Inmediato A Ruta 5 Sur</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>UF 144</t>
+          <t>UF 85</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Palermo 1316, Techo Para Todos, Puerto Montt</t>
+          <t>Av. Cardonal 1 - 300, Mirasol De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>2 privados 2 banos 675 m2 utiles</t>
+          <t>2 banos 437 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Industrial En Arriendo En Puerto Montt</t>
+          <t>Bodega En Arriendo</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>UF 480</t>
+          <t>UF 144</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Chinquihue Alto , A La Altura Del Puerto Granelero De Oxxean, Puerto Montt</t>
+          <t>Palermo 1316, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>5.500 m2 utiles</t>
+          <t>2 privados 2 banos 675 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Local Comercial En Arriendo Amplia Area Libre Zona Centro</t>
+          <t>Industrial En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>UF 204</t>
+          <t>UF 480</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Antonio Varas 980, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Chinquihue Alto , A La Altura Del Puerto Granelero De Oxxean, Puerto Montt</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>4 banos 625 m2 utiles</t>
+          <t>5.500 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Bodega En Condominio, Puerto Montt</t>
+          <t>Local Comercial En Arriendo Amplia Area Libre Zona Centro</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>UF 83</t>
+          <t>UF 204</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Inmaculada 910, 5.5053e+06 - 5.5056e+06 Puerto Montt, Los Lagos, Chile, Techo Para Todos, Puerto Montt</t>
+          <t>Antonio Varas 980, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>2 banos 436 m2 utiles</t>
+          <t>4 banos 625 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13401,103 +13401,103 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Bodega En Arriendo</t>
+          <t>Bodega En Condominio, Puerto Montt</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>UF 81</t>
+          <t>UF 83</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Palermo 1316, Techo Para Todos, Puerto Montt</t>
+          <t>Inmaculada 910, 5.5053e+06 - 5.5056e+06 Puerto Montt, Los Lagos, Chile, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>2 privados 2 banos 437 m2 utiles</t>
+          <t>2 banos 436 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Sector Egana! Oficinas, Area Salud, Educacion, Comercial</t>
+          <t>Bodega En Arriendo</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>UF 42</t>
+          <t>UF 81</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Egana, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Palermo 1316, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>5 privados 4 banos 145 m2 utiles</t>
+          <t>2 privados 2 banos 437 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Bella Casa Con Acceso Rio, 1 Hectarea, Sector Automo-chamiza</t>
+          <t>Sector Egana! Oficinas, Area Salud, Educacion, Comercial</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>$ 1.000.000</t>
+          <t>UF 42</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>H775+98 Chamiza, Puerto Montt, Chile, Puerto Montt</t>
+          <t>Egana, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>3 dormitorios 3 banos 168 m2 utiles</t>
+          <t>5 privados 4 banos 145 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Empresas! 12 Estacionamientos, 13 Oficinas, Sector Seminario</t>
+          <t>Bella Casa Con Acceso Rio, 1 Hectarea, Sector Automo-chamiza</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>UF 110</t>
+          <t>$ 1.000.000</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Seminario, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>H775+98 Chamiza, Puerto Montt, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>13 privados 4 banos 350 m2 utiles</t>
+          <t>3 dormitorios 3 banos 168 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13509,22 +13509,22 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Arriendo Comercia!, Oficinas, Local, Egana, Duoc, Jumbo</t>
+          <t>Empresas! 12 Estacionamientos, 13 Oficinas, Sector Seminario</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>$ 1.300.000</t>
+          <t>UF 110</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Serrano, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Seminario, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>3 privados 2 banos 135 m2 utiles</t>
+          <t>13 privados 4 banos 350 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13536,103 +13536,103 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Gran Propiedad Comercial 3 Pisos, Oficinas, Amplios Espacios</t>
+          <t>Arriendo Comercia!, Oficinas, Local, Egana, Duoc, Jumbo</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>UF 80</t>
+          <t>$ 1.300.000</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Puerto Montt, Centro De Puerto Montt</t>
+          <t>Serrano, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>8 privados 5 banos 280 m2 utiles</t>
+          <t>3 privados 2 banos 135 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Arriendo Departamento Amoblado Un Dormitorio En Puerto Montt</t>
+          <t>Gran Propiedad Comercial 3 Pisos, Oficinas, Amplios Espacios</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>$ 350.000</t>
+          <t>UF 80</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Regimiento 1351, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Puerto Montt, Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 34 m2 utiles</t>
+          <t>8 privados 5 banos 280 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Arrienda Oficina En Edificio Los Heroes</t>
+          <t>Arriendo Departamento Amoblado Un Dormitorio En Puerto Montt</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>UF 15</t>
+          <t>$ 350.000</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Urmeneta 305, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Regimiento 1351, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>2 privados 1 bano 40 m2 utiles</t>
+          <t>1 dormitorio 1 bano 34 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Excelente Estandar. Seguridad. Inmediato A Ruta 5 Sur</t>
+          <t>Arrienda Oficina En Edificio Los Heroes</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>UF 480</t>
+          <t>UF 15</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>RUTA 5 SUR S / N, Puerto Montt</t>
+          <t>Urmeneta 305, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>3.045 m2 utiles</t>
+          <t>2 privados 1 bano 40 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13649,7 +13649,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>UF 320</t>
+          <t>UF 480</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -13659,7 +13659,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>2.030 m2 utiles</t>
+          <t>3.045 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>UF 160</t>
+          <t>UF 320</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -13686,34 +13686,34 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>1.015 m2 utiles</t>
+          <t>2.030 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Departamento 1 Dorm Monoambiente. Condominio Valle Volcanes</t>
+          <t>Excelente Estandar. Seguridad. Inmediato A Ruta 5 Sur</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>$ 239.000</t>
+          <t>UF 160</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>C. Intendente Aurelio Andrade 4688, Puerto Montt, Los Lagos, Chile, La Paloma, Puerto Montt</t>
+          <t>RUTA 5 SUR S / N, Puerto Montt</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 24 m2 utiles</t>
+          <t>1.015 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13725,130 +13725,130 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Triplex-3 Pisos 2banos 3habit Sector Mirasol Vista A Bahia</t>
+          <t>Departamento 1 Dorm Monoambiente. Condominio Valle Volcanes</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>$ 379.000</t>
+          <t>$ 239.000</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Mirador 22, Puerto Montt, Ebensperger - Chorrillos, Puerto Montt</t>
+          <t>C. Intendente Aurelio Andrade 4688, Puerto Montt, Los Lagos, Chile, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 92 m2 utiles</t>
+          <t>1 dormitorio 1 bano 24 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Departamento Amoblado</t>
+          <t>Triplex-3 Pisos 2banos 3habit Sector Mirasol Vista A Bahia</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>$ 379.000</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Volcan Corcovado 5586, La Paloma, Puerto Montt</t>
+          <t>Mirador 22, Puerto Montt, Ebensperger - Chorrillos, Puerto Montt</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 48 m2 utiles</t>
+          <t>3 dormitorios 2 banos 92 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Arrienda Local Comercial En Puerta Del Sol</t>
+          <t>Departamento Amoblado</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>UF 16</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Manihual 285, Puerto Montt, Puerto Montt</t>
+          <t>Volcan Corcovado 5586, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>1 bano 45 m2 utiles</t>
+          <t>3 dormitorios 1 bano 48 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Arrienda Privado En Oficina Cowork Centro De La Ciudad</t>
+          <t>Arrienda Local Comercial En Puerta Del Sol</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>$ 250.000</t>
+          <t>UF 16</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Quillota 175, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Manihual 285, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>1 privado 1 bano 37 m2 utiles</t>
+          <t>1 bano 45 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Bodega En Arriendo En Puerto Montt</t>
+          <t>Arrienda Privado En Oficina Cowork Centro De La Ciudad</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>UF 44</t>
+          <t>$ 250.000</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Panamericana Sur Kilometro 1017, Puerto Montt</t>
+          <t>Quillota 175, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>158 m2 utiles</t>
+          <t>1 privado 1 bano 37 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13865,7 +13865,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>UF 94 , 60</t>
+          <t>UF 44</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>428 m2 utiles</t>
+          <t>158 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13892,7 +13892,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>UF 93</t>
+          <t>UF 94 , 60</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -13902,7 +13902,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>420 m2 utiles</t>
+          <t>428 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13919,7 +13919,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>UF 65 , 80</t>
+          <t>UF 93</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -13929,7 +13929,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>284 m2 utiles</t>
+          <t>420 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13946,17 +13946,17 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>UF 67 , 20</t>
+          <t>UF 65 , 80</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Parque Industrial Husamontt, Puerto Montt</t>
+          <t>Panamericana Sur Kilometro 1017, Puerto Montt</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>480 m2 utiles</t>
+          <t>284 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>UF 139 , 20</t>
+          <t>UF 67 , 20</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>960 m2 utiles</t>
+          <t>480 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14000,17 +14000,17 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>UF 48 , 50</t>
+          <t>UF 139 , 20</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Panamericana Sur Kilometro 1017, Puerto Montt</t>
+          <t>Parque Industrial Husamontt, Puerto Montt</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>200 m2 utiles</t>
+          <t>960 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14027,7 +14027,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>UF 47 , 20</t>
+          <t>UF 48 , 50</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>194 m2 utiles</t>
+          <t>200 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14054,7 +14054,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>UF 58 , 90</t>
+          <t>UF 47 , 20</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -14064,7 +14064,7 @@
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>239 m2 utiles</t>
+          <t>194 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14081,7 +14081,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>UF 57 , 50</t>
+          <t>UF 58 , 90</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -14091,7 +14091,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>232 m2 utiles</t>
+          <t>239 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14108,7 +14108,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>UF 48 , 30</t>
+          <t>UF 57 , 50</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -14118,88 +14118,88 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>197 m2 utiles</t>
+          <t>232 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Departamento 3d-2b - Tucapel 70 - Condominio Mariano Egana</t>
+          <t>Bodega En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>UF 48 , 30</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Tucapel 70, Puerto Montt, Los Lagos, Chile, Lintz, Puerto Montt</t>
+          <t>Panamericana Sur Kilometro 1017, Puerto Montt</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 65 m2 utiles</t>
+          <t>197 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Arrienda Local Comercial En Entrete Club</t>
+          <t>Departamento 3d-2b - Tucapel 70 - Condominio Mariano Egana</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>UF 65</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Manihual 285, Puerto Montt, Puerto Montt</t>
+          <t>Tucapel 70, Puerto Montt, Los Lagos, Chile, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>1 bano 125 m2 utiles</t>
+          <t>3 dormitorios 2 banos 65 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Bodega En Arriendo En Puerto Montt</t>
+          <t>Arrienda Local Comercial En Entrete Club</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>UF 213 , 20</t>
+          <t>UF 65</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Parque Industrial Husamontt, Puerto Montt</t>
+          <t>Manihual 285, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>1.404 m2 utiles</t>
+          <t>1 bano 125 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>UF 140 , 40</t>
+          <t>UF 213 , 20</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -14233,223 +14233,223 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Local Comercial En Arriendo En Puerto Montt</t>
+          <t>Bodega En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>UF 188 , 55</t>
+          <t>UF 140 , 40</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Egana/La Serena/Centro PMontt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Parque Industrial Husamontt, Puerto Montt</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>418 m2 utiles</t>
+          <t>1.404 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Industrial En Arriendo En Puerto Montt</t>
+          <t>Local Comercial En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>UF 55</t>
+          <t>UF 188 , 55</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>Camino A Chinquihue Km 11, Chinquihue, Puerto Montt</t>
+          <t>Egana/La Serena/Centro PMontt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>2.500 m2 totales</t>
+          <t>418 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Bodega En Arriendo En Puerto Montt</t>
+          <t>Industrial En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>UF 0 , 11</t>
+          <t>UF 55</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>Camino El Tepual Kilometro 4.2, Puerto Montt</t>
+          <t>Camino A Chinquihue Km 11, Chinquihue, Puerto Montt</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>1.800 m2 utiles</t>
+          <t>2.500 m2 totales</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Sitio en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Sitio En Arriendo En Puerto Montt</t>
+          <t>Bodega En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>UF 55</t>
+          <t>UF 0 , 11</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Camino A Chinquihue Km 11, Chinquihue, Puerto Montt</t>
+          <t>Camino El Tepual Kilometro 4.2, Puerto Montt</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>2.500 m2 totales</t>
+          <t>1.800 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Terreno en arriendo</t>
+          <t>Sitio en arriendo</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Arriendo Gran Fundo</t>
+          <t>Sitio En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>UF 670</t>
+          <t>UF 55</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Ruta Alerce 818, Alerces, Puerto Montt</t>
+          <t>Camino A Chinquihue Km 11, Chinquihue, Puerto Montt</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>621 ha totales</t>
+          <t>2.500 m2 totales</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Sitio en arriendo</t>
+          <t>Terreno en arriendo</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Sitio En Arriendo En Puerto Montt</t>
+          <t>Arriendo Gran Fundo</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>UF 55</t>
+          <t>UF 670</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Loteo Industrial Portuario Panitao, Puerto Montt</t>
+          <t>Ruta Alerce 818, Alerces, Puerto Montt</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>2.500 m2 totales</t>
+          <t>621 ha totales</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Sitio en arriendo</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Bodegas Y Oficinas Centro Industrial Puerto Montt</t>
+          <t>Sitio En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>UF 60</t>
+          <t>UF 55</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Genesis 361, Puerto Montt, Chile, Techo Para Todos, Puerto Montt</t>
+          <t>Loteo Industrial Portuario Panitao, Puerto Montt</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>1 bano 250 m2 utiles</t>
+          <t>2.500 m2 totales</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Arriendo De Bodegas En Centro Logistico 315 M2 - Puerto Mont</t>
+          <t>Bodegas Y Oficinas Centro Industrial Puerto Montt</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>UF 85</t>
+          <t>UF 60</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>Arriendo De Bodegas En Centro Logistico 315 M2 - Puerto Montt, Puerto Montt</t>
+          <t>Genesis 361, Puerto Montt, Chile, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>315 m2 utiles</t>
+          <t>1 bano 250 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -14476,27 +14476,27 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Excelente Propiedad En Arriendo 395 M2 - Puerto Montt</t>
+          <t>Arriendo De Bodegas En Centro Logistico 315 M2 - Puerto Mont</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>UF 71</t>
+          <t>UF 85</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Excelente Propiedad En Arriendo 395 M2 - Puerto Montt, Puerto Montt</t>
+          <t>Arriendo De Bodegas En Centro Logistico 315 M2 - Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>395 m2 utiles</t>
+          <t>315 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14508,49 +14508,49 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Excelente Propiedad En Arriendo 1165 M2 - Puerto Montt</t>
+          <t>Excelente Propiedad En Arriendo 395 M2 - Puerto Montt</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>UF 186</t>
+          <t>UF 71</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Excelente Propiedad En Arriendo 1165 M2 - Puerto Montt, Puerto Montt</t>
+          <t>Excelente Propiedad En Arriendo 395 M2 - Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>1.165 m2 utiles</t>
+          <t>395 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Local Comercial - 259m2 Puerto Montt</t>
+          <t>Excelente Propiedad En Arriendo 1165 M2 - Puerto Montt</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>UF 100</t>
+          <t>UF 186</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Local Comercial - 259m2 Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Excelente Propiedad En Arriendo 1165 M2 - Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>259 m2 utiles</t>
+          <t>1.165 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14562,22 +14562,22 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Local Comercial 1220 M2 - Puerto Montt</t>
+          <t>Local Comercial - 259m2 Puerto Montt</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>UF 450</t>
+          <t>UF 100</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Local Comercial 1220 M2 - Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Local Comercial - 259m2 Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>1.220 m2 utiles</t>
+          <t>259 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14589,76 +14589,76 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Local Comercial - 809m2 - Puerto Montt</t>
+          <t>Local Comercial 1220 M2 - Puerto Montt</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>UF 195</t>
+          <t>UF 450</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Local Comercial - 809m2, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Local Comercial 1220 M2 - Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>809 m2 utiles</t>
+          <t>1.220 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Exclusiva Y Amplia Oficina En El Centro De Puerto Montt</t>
+          <t>Local Comercial - 809m2 - Puerto Montt</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>UF 38</t>
+          <t>UF 195</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Pedro Montt 160, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Local Comercial - 809m2, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>3 privados 2 banos 130 m2 utiles</t>
+          <t>809 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Bodega En Arriendo En Puerto Montt</t>
+          <t>Exclusiva Y Amplia Oficina En El Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>UF 0 , 18</t>
+          <t>UF 38</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Km 1025 Camino A Pargua, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Pedro Montt 160, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>499 m2 totales</t>
+          <t>3 privados 2 banos 130 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14670,22 +14670,22 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Litoral Centro Empresarial / Ruta 5 Sur, Km 1017 (mod. F-16)</t>
+          <t>Bodega En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>UF 47 , 20</t>
+          <t>UF 0 , 18</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>LITORAL CENTRO EMPRESARIAL / RUTA 5 SUR, KM 1017 (MOD. F16), Puerto Montt</t>
+          <t>Km 1025 Camino A Pargua, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>194 m2 utiles</t>
+          <t>499 m2 totales</t>
         </is>
       </c>
     </row>
@@ -14697,49 +14697,49 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Se Arriendan Bodegas Para Uso Comercial En Puerto Montt</t>
+          <t>Litoral Centro Empresarial / Ruta 5 Sur, Km 1017 (mod. F-16)</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>UF 46</t>
+          <t>UF 47 , 20</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Centro De Puerto Montt, Puerto Montt</t>
+          <t>LITORAL CENTRO EMPRESARIAL / RUTA 5 SUR, KM 1017 (MOD. F16), Puerto Montt</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>13 banos 324 m2 utiles</t>
+          <t>194 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Amoblado No Se Pagan Gastos Comunes</t>
+          <t>Se Arriendan Bodegas Para Uso Comercial En Puerto Montt</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>$ 465.000</t>
+          <t>UF 46</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Buin 590, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 50 m2 utiles</t>
+          <t>13 banos 324 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14751,157 +14751,157 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Arriendo De Departamento Nuevo</t>
+          <t>Amoblado No Se Pagan Gastos Comunes</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>$ 590.000</t>
+          <t>$ 465.000</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Via Azul 1000, Puerto Montt, Puerto Montt</t>
+          <t>Buin 590, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 72 m2 utiles</t>
+          <t>2 dormitorios 1 bano 50 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Casa En Arriendo Puerto Montt 9 Dormitorios 2 Banos Amoblada</t>
+          <t>Arriendo De Departamento Nuevo</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>$ 1.250.000</t>
+          <t>$ 590.000</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Pasaje Sandoval Km. 4 Norte Lagunitas, Puerto Montt</t>
+          <t>Via Azul 1000, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>9 dormitorios 2 banos 320 m2 utiles</t>
+          <t>2 dormitorios 2 banos 72 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Arriendo De Bodegas En Puerto Montt Id 61.880-ind</t>
+          <t>Casa En Arriendo Puerto Montt 9 Dormitorios 2 Banos Amoblada</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>UF 0 , 12</t>
+          <t>$ 1.250.000</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Puerto Montt, Centro De Puerto Montt</t>
+          <t>Pasaje Sandoval Km. 4 Norte Lagunitas, Puerto Montt</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>7.100 m2 utiles</t>
+          <t>9 dormitorios 2 banos 320 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Hermosa Casa En Arriendo De 4 Dorm. En Puerto Montt</t>
+          <t>Arriendo De Bodegas En Puerto Montt Id 61.880-ind</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>$ 850.000</t>
+          <t>UF 0 , 12</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Villa Yolanda, Puerto Montt</t>
+          <t>Puerto Montt, Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>4 dormitorios 3 banos 125 m2 utiles</t>
+          <t>7.100 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Arriendo Bodegas Puerto Montt Id 48.866-lin</t>
+          <t>Hermosa Casa En Arriendo De 4 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>UF 187</t>
+          <t>$ 850.000</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>Ruta 5 Sur, Puerto Montt, Chile, Puerto Montt</t>
+          <t>Villa Yolanda, Puerto Montt</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>2 banos 1.500 m2 utiles</t>
+          <t>4 dormitorios 3 banos 125 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Arriendo Bodegas Con Oficina En Puerto Montt Id 69.030-ind</t>
+          <t>Arriendo Bodegas Puerto Montt Id 48.866-lin</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>UF 0 , 16</t>
+          <t>UF 187</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Ruta 5 900 - 1200, Puerto Montt, Puerto Montt</t>
+          <t>Ruta 5 Sur, Puerto Montt, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>5.600 m2 utiles</t>
+          <t>2 banos 1.500 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14913,22 +14913,22 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Arriendo De Bodegas En Puerto Montt Id 63.877-ind</t>
+          <t>Arriendo Bodegas Con Oficina En Puerto Montt Id 69.030-ind</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>UF 0 , 12</t>
+          <t>UF 0 , 16</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>Bernardino 1985, Techo Para Todos, Puerto Montt</t>
+          <t>Ruta 5 900 - 1200, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>200.000 m2 utiles</t>
+          <t>5.600 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14940,7 +14940,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Arriendo De Bodegas En Puerto Montt Id 61.706-ind</t>
+          <t>Arriendo De Bodegas En Puerto Montt Id 63.877-ind</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -14950,39 +14950,39 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Ruta 5 1025, Puerto Montt</t>
+          <t>Bernardino 1985, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>70.800 m2 utiles</t>
+          <t>200.000 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Bodega en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>(bod) Bodega Industrial Con Posibilidad De Expansion</t>
+          <t>Arriendo De Bodegas En Puerto Montt Id 61.706-ind</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>UF 88</t>
+          <t>UF 0 , 12</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Parcelas Lomas De Trapen, Ruta 5, Puerto Montt, Los Lagos, Puerto Montt</t>
+          <t>Ruta 5 1025, Puerto Montt</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>588 m2 utiles</t>
+          <t>70.800 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -14994,22 +14994,22 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Bodega Puerto Montt</t>
+          <t>(bod) Bodega Industrial Con Posibilidad De Expansion</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>UF 50</t>
+          <t>UF 88</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>PUERTO MONTT, Puerto Montt</t>
+          <t>Parcelas Lomas De Trapen, Ruta 5, Puerto Montt, Los Lagos, Puerto Montt</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>10.000 m2 utiles</t>
+          <t>588 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15021,22 +15021,22 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Bodega En Arriendo En Puerto Montt - Sin Comision</t>
+          <t>Bodega Puerto Montt</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>UF 189</t>
+          <t>UF 50</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Centro De Puerto Montt, Puerto Montt</t>
+          <t>PUERTO MONTT, Puerto Montt</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>1.186 m2 utiles</t>
+          <t>10.000 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15053,7 +15053,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>UF 84</t>
+          <t>UF 189</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -15063,7 +15063,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>428 m2 utiles</t>
+          <t>1.186 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15080,7 +15080,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>UF 65</t>
+          <t>UF 84</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -15090,34 +15090,34 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>362 m2 utiles</t>
+          <t>428 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Bodega en arriendo</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Se Arrienda Amplia Bodega De 4.000m2 En Puerto Montt</t>
+          <t>Bodega En Arriendo En Puerto Montt - Sin Comision</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>UF 290</t>
+          <t>UF 65</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>FWHP+W5 Molinos, Puerto Montt, Chile, Puerto Montt</t>
+          <t>Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>2 banos 7.000 m2 utiles</t>
+          <t>362 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15129,211 +15129,211 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Local Comercial En Arriendo En Puerto Montt</t>
+          <t>Se Arrienda Amplia Bodega De 4.000m2 En Puerto Montt</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>UF 200</t>
+          <t>UF 290</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>GUILLERMO GALLARDO / BENAVENTE, Centro De Puerto Montt, Puerto Montt</t>
+          <t>FWHP+W5 Molinos, Puerto Montt, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>21 banos 1.227 m2 utiles</t>
+          <t>2 banos 7.000 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Antonio Varas / Copiapo (of 510)</t>
+          <t>Local Comercial En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>UF 52</t>
+          <t>UF 200</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>ANTONIO VARAS / COPIAPO (OF 510), Centro De Puerto Montt, Puerto Montt</t>
+          <t>GUILLERMO GALLARDO / BENAVENTE, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>110 m2 utiles</t>
+          <t>21 banos 1.227 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Ruta 226 Camino El Tepual / Ruta 5</t>
+          <t>Antonio Varas / Copiapo (of 510)</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>UF 300</t>
+          <t>UF 52</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>RUTA 226 &amp;quot;CAMINO EL TEPUAL" / RUTA 5, Puerto Montt</t>
+          <t>ANTONIO VARAS / COPIAPO (OF 510), Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>3.464 m2 utiles</t>
+          <t>110 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Antonio Varas / Illapel</t>
+          <t>Ruta 226 Camino El Tepual / Ruta 5</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>UF 110</t>
+          <t>UF 300</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>ANTONIO VARAS / ILLAPEL, Centro De Puerto Montt, Puerto Montt</t>
+          <t>RUTA 226 &amp;quot;CAMINO EL TEPUAL" / RUTA 5, Puerto Montt</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>226 m2 utiles</t>
+          <t>3.464 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Panamericana Sur / Sector Chin Chin</t>
+          <t>Antonio Varas / Illapel</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>UF 500</t>
+          <t>UF 110</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>PANAMERICANA SUR / SECTOR CHIN CHIN, Puerto Montt</t>
+          <t>ANTONIO VARAS / ILLAPEL, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>7.553 m2 utiles</t>
+          <t>226 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Bernardino / Palermo</t>
+          <t>Panamericana Sur / Sector Chin Chin</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>UF 114</t>
+          <t>UF 500</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>BERNARDINO / PALERMO, Techo Para Todos, Puerto Montt</t>
+          <t>PANAMERICANA SUR / SECTOR CHIN CHIN, Puerto Montt</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>380 m2 utiles</t>
+          <t>7.553 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Industrial en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Ruta 5 Sur / Sector Chin Chin</t>
+          <t>Bernardino / Palermo</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>UF 187 , 60</t>
+          <t>UF 114</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>RUTA 5 SUR / SECTOR CHIN CHIN, Puerto Montt</t>
+          <t>BERNARDINO / PALERMO, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>1.340 m2 utiles</t>
+          <t>380 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Local en arriendo</t>
+          <t>Industrial en arriendo</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Av. Cardonal / Via Romana</t>
+          <t>Ruta 5 Sur / Sector Chin Chin</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>UF 300</t>
+          <t>UF 187 , 60</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>AV. CARDONAL / VIA ROMANA, Techo Para Todos, Puerto Montt</t>
+          <t>RUTA 5 SUR / SECTOR CHIN CHIN, Puerto Montt</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>2.060 m2 utiles</t>
+          <t>1.340 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15345,103 +15345,103 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Egana / Serena (local 1)</t>
+          <t>Av. Cardonal / Via Romana</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>UF 188 , 55</t>
+          <t>UF 300</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>EGANA / SERENA (Local 1), Centro De Puerto Montt, Puerto Montt</t>
+          <t>AV. CARDONAL / VIA ROMANA, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>419 m2 utiles</t>
+          <t>2.060 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Local en arriendo</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Oficina En Arriendo En Puerto Montt</t>
+          <t>Egana / Serena (local 1)</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>UF 226</t>
+          <t>UF 188 , 55</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>ANTONIO VARAS / ILLAPEL (Piso 12 Y 13), Centro De Puerto Montt, Puerto Montt</t>
+          <t>EGANA / SERENA (Local 1), Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>13 privados 8 banos 579 m2 utiles</t>
+          <t>419 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Arrienda Depto. Duplex, Con G.c Incluidos, Chinquihue Pto. M</t>
+          <t>Oficina En Arriendo En Puerto Montt</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>$ 795.000</t>
+          <t>UF 226</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>Chinquihue, Puerto Montt, Techo Para Todos, Puerto Montt</t>
+          <t>ANTONIO VARAS / ILLAPEL (Piso 12 Y 13), Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>5 dormitorios 4 banos</t>
+          <t>13 privados 8 banos 579 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Arriendo Casa Sin Amoblar, Parque Fundadores, Pto. Montt</t>
+          <t>Arrienda Depto. Duplex, Con G.c Incluidos, Chinquihue Pto. M</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>$ 420.000</t>
+          <t>$ 795.000</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>V-629 140, Puerto Montt, Alerces, Puerto Montt</t>
+          <t>Chinquihue, Puerto Montt, Techo Para Todos, Puerto Montt</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano</t>
+          <t>5 dormitorios 4 banos</t>
         </is>
       </c>
     </row>
@@ -15453,22 +15453,22 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Arriendo Casa Semi Amoblado, Villa Rucahue, Carrt. Austral</t>
+          <t>Arriendo Casa Sin Amoblar, Parque Fundadores, Pto. Montt</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 420.000</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Carr. Austral, Puerto Montt, Puerto Montt</t>
+          <t>V-629 140, Puerto Montt, Alerces, Puerto Montt</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>4 dormitorios 2 banos</t>
+          <t>2 dormitorios 1 bano</t>
         </is>
       </c>
     </row>
@@ -15480,44 +15480,44 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Arriendo Casa Sin Amoblar, Sector Jardin Austral, Pto. Montt</t>
+          <t>Arriendo Casa Semi Amoblado, Villa Rucahue, Carrt. Austral</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>$ 540.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Pje Cruz De Los Mares, Puerto Montt, La Paloma, Puerto Montt</t>
+          <t>Carr. Austral, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano</t>
+          <t>4 dormitorios 2 banos</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Arriendo Depto. Condominio Conjunto Los Lagos, Puerto Montt.</t>
+          <t>Arriendo Casa Sin Amoblar, Sector Jardin Austral, Pto. Montt</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>$ 350.000</t>
+          <t>$ 540.000</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Puerto Montt, Centro De Puerto Montt</t>
+          <t>Pje Cruz De Los Mares, Puerto Montt, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -15534,130 +15534,130 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Arriendo Depto. Soleado Amoblado, Valle Volcanes, Pto. Montt</t>
+          <t>Arriendo Depto. Condominio Conjunto Los Lagos, Puerto Montt.</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>$ 350.000</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>Calle Nueva Ote. 4, Puerto Montt, Puerto Montt</t>
+          <t>Puerto Montt, Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano</t>
+          <t>3 dormitorios 1 bano</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Arrienda Hermosa Casa, Pobl. 18 De Septiembre, Puerto Montt</t>
+          <t>Arriendo Depto. Soleado Amoblado, Valle Volcanes, Pto. Montt</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 480.000</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Ignacio De La Carrera, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Calle Nueva Ote. 4, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>4 dormitorios 1 bano</t>
+          <t>2 dormitorios 1 bano</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Arriendo Depto. Semi Amoblada, Alto La Paloma Iii, Pto. Mont</t>
+          <t>Arrienda Hermosa Casa, Pobl. 18 De Septiembre, Puerto Montt</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>$ 470.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Volcan Corcovado 5582, Puerto Montt, La Paloma, Puerto Montt</t>
+          <t>Ignacio De La Carrera, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano</t>
+          <t>4 dormitorios 1 bano</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Arriendo Casa En Sector Manuel Montt, Puerto Montt</t>
+          <t>Arriendo Depto. Semi Amoblada, Alto La Paloma Iii, Pto. Mont</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>$ 470.000</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>Manuel Montt, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Volcan Corcovado 5582, Puerto Montt, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>5 dormitorios 2 banos 114 m2 utiles</t>
+          <t>3 dormitorios 1 bano</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Arrienda Depto. Con G.c Incluidos Valle Volcanes, Pto.montt</t>
+          <t>Arriendo Casa En Sector Manuel Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>$ 520.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>Nva Ote., Puerto Montt, Puerto Montt</t>
+          <t>Manuel Montt, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos</t>
+          <t>5 dormitorios 2 banos 114 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15669,22 +15669,22 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Departamento 2dormitorios 2banos 1 Estacionamiento</t>
+          <t>Arrienda Depto. Con G.c Incluidos Valle Volcanes, Pto.montt</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>$ 580.000</t>
+          <t>$ 520.000</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>Via Azul 930, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Nva Ote., Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 53 m2 utiles</t>
+          <t>3 dormitorios 2 banos</t>
         </is>
       </c>
     </row>
@@ -15696,22 +15696,22 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo 2 Dorm. Puerto Montt</t>
+          <t>Departamento 2dormitorios 2banos 1 Estacionamiento</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>$ 470.000</t>
+          <t>$ 580.000</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 85, Lintz, Puerto Montt</t>
+          <t>Via Azul 930, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 36 m2 utiles</t>
+          <t>2 dormitorios 2 banos 53 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15723,22 +15723,22 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Departamento Completamente Amoblado, 1 Dormitorio 1 Bano</t>
+          <t>Departamento En Arriendo 2 Dorm. Puerto Montt</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>$ 470.000</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Volcan Corcovado 5582, La Paloma, Puerto Montt</t>
+          <t>Francisco Bilbao 85, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 48 m2 utiles</t>
+          <t>2 dormitorios 1 bano 36 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15750,22 +15750,22 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Departamento Asoleado Con Vista Al Mar En Playa Pelluco</t>
+          <t>Departamento Completamente Amoblado, 1 Dormitorio 1 Bano</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>$ 730.000</t>
+          <t>$ 480.000</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Av. Puerto Montt 1641, Puerto Montt, Puerto Montt</t>
+          <t>Volcan Corcovado 5582, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 70 m2 utiles</t>
+          <t>1 dormitorio 1 bano 48 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15777,22 +15777,22 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Departamento 2d-1b-1e Puerto Montt</t>
+          <t>Departamento Asoleado Con Vista Al Mar En Playa Pelluco</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 730.000</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 85, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Av. Puerto Montt 1641, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 42 m2 utiles</t>
+          <t>2 dormitorios 2 banos 70 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15804,22 +15804,22 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Departamento 3d 2b</t>
+          <t>Departamento 2d-1b-1e Puerto Montt</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>$ 500.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Sin Direccion SN, Lintz, Puerto Montt</t>
+          <t>Francisco Bilbao 85, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 60 m2 utiles</t>
+          <t>2 dormitorios 1 bano 42 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15831,22 +15831,22 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Lindo Departamento Amoblado 2d-1b</t>
+          <t>Departamento 3d 2b</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>$ 500.000</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>Egana 1251, 5480000 Puerto Montt, Los Lagos, Chile, Lintz, Puerto Montt</t>
+          <t>Sin Direccion SN, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 55 m2 utiles</t>
+          <t>3 dormitorios 2 banos 60 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15858,22 +15858,22 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Arriendo Departamento Nuevo En Valle Volcanes</t>
+          <t>Lindo Departamento Amoblado 2d-1b</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>$ 600.000</t>
+          <t>$ 480.000</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>Av. Marcelo Fourcade 4867, Puerto Montt, Los Lagos, Chile, La Paloma, Puerto Montt</t>
+          <t>Egana 1251, 5480000 Puerto Montt, Los Lagos, Chile, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 54 m2 utiles</t>
+          <t>2 dormitorios 1 bano 55 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15885,76 +15885,76 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Departamento Muy Buena Ubicacion 1 Pieza 1 Bano</t>
+          <t>Arriendo Departamento Nuevo En Valle Volcanes</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>$ 420.000</t>
+          <t>$ 600.000</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>Diagonal Laguna 1 Edificio C 108, La Paloma, Puerto Montt</t>
+          <t>Av. Marcelo Fourcade 4867, Puerto Montt, Los Lagos, Chile, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 39 m2 utiles</t>
+          <t>2 dormitorios 2 banos 54 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Se Arrienda Casa Para Oficina Valle Volcanes</t>
+          <t>Departamento Muy Buena Ubicacion 1 Pieza 1 Bano</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>$ 900.000</t>
+          <t>$ 420.000</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>Painemilla SN, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Diagonal Laguna 1 Edificio C 108, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 80 m2 utiles</t>
+          <t>1 dormitorio 1 bano 39 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Arriendo Departamento En Condominio Alta Vista</t>
+          <t>Se Arrienda Casa Para Oficina Valle Volcanes</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>UF 13</t>
+          <t>$ 900.000</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>Camilo Mori 1917, 5505523 Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
+          <t>Painemilla SN, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 53 m2 utiles</t>
+          <t>3 dormitorios 2 banos 80 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15966,22 +15966,22 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Arriendo, Condominio Terramar Pelluco.</t>
+          <t>Arriendo Departamento En Condominio Alta Vista</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>$ 650.000</t>
+          <t>UF 13</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>Av. Puerto Montt 1650, Puerto Montt, Puerto Montt</t>
+          <t>Camilo Mori 1917, 5505523 Puerto Montt, Los Lagos, Chile, Puerto Montt</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 64 m2 utiles</t>
+          <t>2 dormitorios 1 bano 53 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -15993,49 +15993,49 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Depto Centrico 1d + 1b. Semi Amoblado</t>
+          <t>Arriendo, Condominio Terramar Pelluco.</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 650.000</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>San Felipe 183, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Av. Puerto Montt 1650, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 35 m2 utiles</t>
+          <t>2 dormitorios 2 banos 64 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Arriendo Casa Amoblada Sector Residencial</t>
+          <t>Depto Centrico 1d + 1b. Semi Amoblado</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>$ 890.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>Parque Nacional Conguillio 5006, La Paloma, Puerto Montt</t>
+          <t>San Felipe 183, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 120 m2 utiles</t>
+          <t>1 dormitorio 1 bano 35 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -16047,22 +16047,22 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Cabana Interior Amoblada Una Persona Barrio Residencial</t>
+          <t>Arriendo Casa Amoblada Sector Residencial</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>$ 300.000</t>
+          <t>$ 890.000</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Rio Cebadal 240, Puerto Montt, Puerto Montt</t>
+          <t>Parque Nacional Conguillio 5006, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 20 m2 utiles</t>
+          <t>3 dormitorios 2 banos 120 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -16074,49 +16074,49 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Casa Con Amplio Patio Y Estufa A Pellet En Parque Fundadores</t>
+          <t>Cabana Interior Amoblada Una Persona Barrio Residencial</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>$ 400.000</t>
+          <t>$ 300.000</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>Pje. Colono Decaer 2631, Puerto Montt, Alerces, Puerto Montt</t>
+          <t>Rio Cebadal 240, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 50 m2 utiles</t>
+          <t>1 dormitorio 1 bano 20 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Departamento Sector Pichi Pelluco Semiamoblado.</t>
+          <t>Casa Con Amplio Patio Y Estufa A Pellet En Parque Fundadores</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>$ 350.000</t>
+          <t>$ 400.000</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>Pje. Rio Nady, Puerto Montt, Lintz, Puerto Montt</t>
+          <t>Pje. Colono Decaer 2631, Puerto Montt, Alerces, Puerto Montt</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 24 m2 utiles</t>
+          <t>2 dormitorios 1 bano 50 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -16128,7 +16128,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Depto 2 Dormitorios, 1 Bano</t>
+          <t>Departamento Sector Pichi Pelluco Semiamoblado.</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -16138,12 +16138,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Rio Gomez Con Rio Chico S/n, Lintz, Puerto Montt</t>
+          <t>Pje. Rio Nady, Puerto Montt, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 50 m2 utiles</t>
+          <t>1 dormitorio 1 bano 24 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -16155,103 +16155,103 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Departamento Valle Volcanes</t>
+          <t>Depto 2 Dormitorios, 1 Bano</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>$ 460.000</t>
+          <t>$ 350.000</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Nueva Oriente 4 SN, La Paloma, Puerto Montt</t>
+          <t>Rio Gomez Con Rio Chico S/n, Lintz, Puerto Montt</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 80 m2 utiles</t>
+          <t>2 dormitorios 1 bano 50 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Oficina En Centro De Puerto Montt</t>
+          <t>Departamento Valle Volcanes</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>$ 350.000</t>
+          <t>$ 460.000</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>Urmeneta 305, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Nueva Oriente 4 SN, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>1 bano 36 m2 utiles</t>
+          <t>3 dormitorios 1 bano 80 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Se Arrienda Casa En Lugar Centrico De Puerto Montt.</t>
+          <t>Oficina En Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>$ 33.330.000</t>
+          <t>$ 350.000</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>Jose Manuel Balmaceda An, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Urmeneta 305, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano</t>
+          <t>1 bano 36 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Departamento 2 Dormitorios</t>
+          <t>Se Arrienda Casa En Lugar Centrico De Puerto Montt.</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 33.330.000</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>Pasaje Los Tamarindos 4906, La Paloma, Puerto Montt</t>
+          <t>Jose Manuel Balmaceda An, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>2 dormitorios 1 bano 52 m2 utiles</t>
+          <t>3 dormitorios 1 bano</t>
         </is>
       </c>
     </row>
@@ -16263,34 +16263,34 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo 3d/2b</t>
+          <t>Departamento 2 Dormitorios</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Volcan Corcovado 5820, La Paloma, Puerto Montt</t>
+          <t>Pasaje Los Tamarindos 4906, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 58 m2 utiles</t>
+          <t>2 dormitorios 1 bano 52 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Se Arrienda Casa Nueva A Partir Del 01 De Octubre</t>
+          <t>Departamento En Arriendo 3d/2b</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -16300,120 +16300,120 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>Pasaje Rio Lauca, Puerto Montt, Puerto Montt</t>
+          <t>Volcan Corcovado 5820, La Paloma, Puerto Montt</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 68 m2 utiles</t>
+          <t>3 dormitorios 2 banos 58 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Estacionamiento en arriendo</t>
+          <t>Casa en arriendo</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Estacionamento Techado, Puerto Montt Centro</t>
+          <t>Se Arrienda Casa Nueva A Partir Del 01 De Octubre</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>$ 95.000</t>
+          <t>$ 550.000</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Buin 349, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Pasaje Rio Lauca, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>15 m2 totales</t>
+          <t>3 dormitorios 1 bano 68 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Estacionamiento en arriendo</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Oficina En El Centro De Puerto Montt Excelente Estado</t>
+          <t>Estacionamento Techado, Puerto Montt Centro</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>UF 24 , 50</t>
+          <t>$ 95.000</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Concepcion 120, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Buin 349, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>3 privados 2 banos 88 m2 utiles</t>
+          <t>15 m2 totales</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Parcela en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Casa En Arriendo, Ciudad De Puerto Montt. Sector Puerta Sur</t>
+          <t>Oficina En El Centro De Puerto Montt Excelente Estado</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>UF 24 , 50</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Pje. Jose Hidalgo, Puerto Montt, Puerto Montt</t>
+          <t>Concepcion 120, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>2 dormitorios 2 banos 57 m2 utiles</t>
+          <t>3 privados 2 banos 88 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Oficina en arriendo</t>
+          <t>Parcela en arriendo</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Oficina Excelente Ubicacion</t>
+          <t>Casa En Arriendo, Ciudad De Puerto Montt. Sector Puerta Sur</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>UF 24 , 50</t>
+          <t>$ 480.000</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Concepcion 120, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Pje. Jose Hidalgo, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>3 privados 2 banos 88 m2 utiles</t>
+          <t>2 dormitorios 2 banos 57 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -16425,12 +16425,12 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Oficina En Excelente Estado En El Centro De Puerto Montt</t>
+          <t>Oficina Excelente Ubicacion</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>UF 22 , 50</t>
+          <t>UF 24 , 50</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -16440,7 +16440,7 @@
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>4 privados 3 banos 88 m2 utiles</t>
+          <t>3 privados 2 banos 88 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -16452,49 +16452,49 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Oficina En El Centro De Puerto Montt</t>
+          <t>Oficina En Excelente Estado En El Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>UF 12 , 50</t>
+          <t>UF 22 , 50</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>Pedro Montt 65, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Concepcion 120, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>2 privados 1 bano 49 m2 utiles</t>
+          <t>4 privados 3 banos 88 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Departamento en arriendo</t>
+          <t>Oficina en arriendo</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Arriendo Depto Amoblado</t>
+          <t>Oficina En El Centro De Puerto Montt</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>$ 480.000</t>
+          <t>UF 12 , 50</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Los Leones 362, Centro De Puerto Montt, Puerto Montt</t>
+          <t>Pedro Montt 65, Puerto Montt, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>1 dormitorio 1 bano 36 m2 utiles</t>
+          <t>2 privados 1 bano 49 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -16506,22 +16506,22 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Se Arrienda Departamento En Condominios Los Nirres</t>
+          <t>Arriendo Depto Amoblado</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>$ 450.000</t>
+          <t>$ 480.000</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>Pasaje Aerodromo Rodelillo 3520, Puerto Montt, Puerto Montt</t>
+          <t>Los Leones 362, Centro De Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 54 m2 utiles</t>
+          <t>1 dormitorio 1 bano 36 m2 utiles</t>
         </is>
       </c>
     </row>
@@ -16533,49 +16533,49 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Departamento En Arriendo De 3 Dorm. En Puerto Montt</t>
+          <t>Se Arrienda Departamento En Condominios Los Nirres</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>$ 750.000</t>
+          <t>$ 450.000</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Calle Puerto Montt 1641, Puerto Montt</t>
+          <t>Pasaje Aerodromo Rodelillo 3520, Puerto Montt, Puerto Montt</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>3 dormitorios 2 banos 75 m2 utiles</t>
+          <t>3 dormitorios 1 bano 54 m2 utiles</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Casa en arriendo</t>
+          <t>Departamento en arriendo</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Arrienda Propiedad En Inigualable Sector</t>
+          <t>Departamento En Arriendo De 3 Dorm. En Puerto Montt</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>$ 550.000</t>
+          <t>$ 750.000</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Llanten, 2106, Puerto Montt</t>
+          <t>Calle Puerto Montt 1641, Puerto Montt</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>3 dormitorios 1 bano 57 m2 utiles</t>
+          <t>3 dormitorios 2 banos 75 m2 utiles</t>
         </is>
       </c>
     </row>
